--- a/ACTIVSg200/3.IL200_dyn_50wt.xlsx
+++ b/ACTIVSg200/3.IL200_dyn_50wt.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="1074">
   <si>
     <t>idx</t>
   </si>
@@ -2470,33 +2470,6 @@
     <t>IEEEG1_11</t>
   </si>
   <si>
-    <t>IEEEG1_12</t>
-  </si>
-  <si>
-    <t>IEEEG1_13</t>
-  </si>
-  <si>
-    <t>IEEEG1_14</t>
-  </si>
-  <si>
-    <t>IEEEG1_15</t>
-  </si>
-  <si>
-    <t>IEEEG1_16</t>
-  </si>
-  <si>
-    <t>IEEEG1_17</t>
-  </si>
-  <si>
-    <t>IEEEG1_18</t>
-  </si>
-  <si>
-    <t>IEEEG1_19</t>
-  </si>
-  <si>
-    <t>IEEEG1_20</t>
-  </si>
-  <si>
     <t>KT</t>
   </si>
   <si>
@@ -2539,21 +2512,6 @@
     <t>GAST_12</t>
   </si>
   <si>
-    <t>GAST_13</t>
-  </si>
-  <si>
-    <t>GAST_14</t>
-  </si>
-  <si>
-    <t>GAST_15</t>
-  </si>
-  <si>
-    <t>GAST_16</t>
-  </si>
-  <si>
-    <t>GAST_17</t>
-  </si>
-  <si>
     <t>TATB</t>
   </si>
   <si>
@@ -2794,6 +2752,48 @@
     <t>REGCA_11</t>
   </si>
   <si>
+    <t>REGCA_12</t>
+  </si>
+  <si>
+    <t>REGCA_13</t>
+  </si>
+  <si>
+    <t>REGCA_14</t>
+  </si>
+  <si>
+    <t>REGCA_15</t>
+  </si>
+  <si>
+    <t>REGCA_16</t>
+  </si>
+  <si>
+    <t>REGCA_17</t>
+  </si>
+  <si>
+    <t>REGCA_18</t>
+  </si>
+  <si>
+    <t>REGCA_19</t>
+  </si>
+  <si>
+    <t>REGCA_20</t>
+  </si>
+  <si>
+    <t>REGCA_21</t>
+  </si>
+  <si>
+    <t>REGCA_22</t>
+  </si>
+  <si>
+    <t>REGCA_23</t>
+  </si>
+  <si>
+    <t>REGCA_24</t>
+  </si>
+  <si>
+    <t>REGCA_25</t>
+  </si>
+  <si>
     <t>reg</t>
   </si>
   <si>
@@ -2968,6 +2968,48 @@
     <t>REECA1_11</t>
   </si>
   <si>
+    <t>REECA1_12</t>
+  </si>
+  <si>
+    <t>REECA1_13</t>
+  </si>
+  <si>
+    <t>REECA1_14</t>
+  </si>
+  <si>
+    <t>REECA1_15</t>
+  </si>
+  <si>
+    <t>REECA1_16</t>
+  </si>
+  <si>
+    <t>REECA1_17</t>
+  </si>
+  <si>
+    <t>REECA1_18</t>
+  </si>
+  <si>
+    <t>REECA1_19</t>
+  </si>
+  <si>
+    <t>REECA1_20</t>
+  </si>
+  <si>
+    <t>REECA1_21</t>
+  </si>
+  <si>
+    <t>REECA1_22</t>
+  </si>
+  <si>
+    <t>REECA1_23</t>
+  </si>
+  <si>
+    <t>REECA1_24</t>
+  </si>
+  <si>
+    <t>REECA1_25</t>
+  </si>
+  <si>
     <t>ree</t>
   </si>
   <si>
@@ -3088,6 +3130,48 @@
     <t>REPCA1_11</t>
   </si>
   <si>
+    <t>REPCA1_12</t>
+  </si>
+  <si>
+    <t>REPCA1_13</t>
+  </si>
+  <si>
+    <t>REPCA1_14</t>
+  </si>
+  <si>
+    <t>REPCA1_15</t>
+  </si>
+  <si>
+    <t>REPCA1_16</t>
+  </si>
+  <si>
+    <t>REPCA1_17</t>
+  </si>
+  <si>
+    <t>REPCA1_18</t>
+  </si>
+  <si>
+    <t>REPCA1_19</t>
+  </si>
+  <si>
+    <t>REPCA1_20</t>
+  </si>
+  <si>
+    <t>REPCA1_21</t>
+  </si>
+  <si>
+    <t>REPCA1_22</t>
+  </si>
+  <si>
+    <t>REPCA1_23</t>
+  </si>
+  <si>
+    <t>REPCA1_24</t>
+  </si>
+  <si>
+    <t>REPCA1_25</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -3125,6 +3209,48 @@
   </si>
   <si>
     <t>WTDS_11</t>
+  </si>
+  <si>
+    <t>WTDS_12</t>
+  </si>
+  <si>
+    <t>WTDS_13</t>
+  </si>
+  <si>
+    <t>WTDS_14</t>
+  </si>
+  <si>
+    <t>WTDS_15</t>
+  </si>
+  <si>
+    <t>WTDS_16</t>
+  </si>
+  <si>
+    <t>WTDS_17</t>
+  </si>
+  <si>
+    <t>WTDS_18</t>
+  </si>
+  <si>
+    <t>WTDS_19</t>
+  </si>
+  <si>
+    <t>WTDS_20</t>
+  </si>
+  <si>
+    <t>WTDS_21</t>
+  </si>
+  <si>
+    <t>WTDS_22</t>
+  </si>
+  <si>
+    <t>WTDS_23</t>
+  </si>
+  <si>
+    <t>WTDS_24</t>
+  </si>
+  <si>
+    <t>WTDS_25</t>
   </si>
 </sst>
 </file>
@@ -12342,7 +12468,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12949,7 +13075,7 @@
         <v>808</v>
       </c>
       <c r="E8" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12961,10 +13087,10 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>0.293992</v>
+        <v>0.41585</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>0.1</v>
@@ -12991,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>9.00009</v>
       </c>
       <c r="U8">
         <v>0.5</v>
@@ -13032,7 +13158,7 @@
         <v>809</v>
       </c>
       <c r="E9" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13044,7 +13170,7 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>0.385075</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -13115,7 +13241,7 @@
         <v>810</v>
       </c>
       <c r="E10" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13127,7 +13253,7 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>0.205696</v>
+        <v>0.5</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -13198,7 +13324,7 @@
         <v>811</v>
       </c>
       <c r="E11" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13210,7 +13336,7 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>0.41585</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -13281,7 +13407,7 @@
         <v>812</v>
       </c>
       <c r="E12" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -13296,7 +13422,7 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>0.719882</v>
       </c>
       <c r="L12">
         <v>0.1</v>
@@ -13323,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>9.00009</v>
+        <v>2.39961</v>
       </c>
       <c r="U12">
         <v>0.5</v>
@@ -13347,753 +13473,6 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>813</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>813</v>
-      </c>
-      <c r="E13" t="s">
-        <v>688</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>20</v>
-      </c>
-      <c r="J13">
-        <v>0.5</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>0.1</v>
-      </c>
-      <c r="M13">
-        <v>0.1</v>
-      </c>
-      <c r="N13">
-        <v>-0.1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0.4</v>
-      </c>
-      <c r="R13">
-        <v>0.5</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>9.00009</v>
-      </c>
-      <c r="U13">
-        <v>0.5</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0.5</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0.05</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>814</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>814</v>
-      </c>
-      <c r="E14" t="s">
-        <v>696</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>20</v>
-      </c>
-      <c r="J14">
-        <v>0.5</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>0.1</v>
-      </c>
-      <c r="M14">
-        <v>0.1</v>
-      </c>
-      <c r="N14">
-        <v>-0.1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0.4</v>
-      </c>
-      <c r="R14">
-        <v>0.5</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>9.00009</v>
-      </c>
-      <c r="U14">
-        <v>0.5</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0.5</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0.05</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>815</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>815</v>
-      </c>
-      <c r="E15" t="s">
-        <v>707</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="J15">
-        <v>0.5</v>
-      </c>
-      <c r="K15">
-        <v>0.719882</v>
-      </c>
-      <c r="L15">
-        <v>0.1</v>
-      </c>
-      <c r="M15">
-        <v>0.1</v>
-      </c>
-      <c r="N15">
-        <v>-0.1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0.4</v>
-      </c>
-      <c r="R15">
-        <v>0.5</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>2.39961</v>
-      </c>
-      <c r="U15">
-        <v>0.5</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0.5</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0.05</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>816</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>816</v>
-      </c>
-      <c r="E16" t="s">
-        <v>708</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>25</v>
-      </c>
-      <c r="J16">
-        <v>0.5</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>0.1</v>
-      </c>
-      <c r="M16">
-        <v>0.1</v>
-      </c>
-      <c r="N16">
-        <v>-0.1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0.4</v>
-      </c>
-      <c r="R16">
-        <v>0.5</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>9.00009</v>
-      </c>
-      <c r="U16">
-        <v>0.5</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0.5</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0.05</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>817</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>817</v>
-      </c>
-      <c r="E17" t="s">
-        <v>709</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
-      <c r="J17">
-        <v>0.5</v>
-      </c>
-      <c r="K17">
-        <v>2.1</v>
-      </c>
-      <c r="L17">
-        <v>0.1</v>
-      </c>
-      <c r="M17">
-        <v>0.1</v>
-      </c>
-      <c r="N17">
-        <v>-0.1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0.4</v>
-      </c>
-      <c r="R17">
-        <v>0.5</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>6.30006</v>
-      </c>
-      <c r="U17">
-        <v>0.5</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0.5</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0.05</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>818</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>818</v>
-      </c>
-      <c r="E18" t="s">
-        <v>710</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>25</v>
-      </c>
-      <c r="J18">
-        <v>0.5</v>
-      </c>
-      <c r="K18">
-        <v>2.1</v>
-      </c>
-      <c r="L18">
-        <v>0.1</v>
-      </c>
-      <c r="M18">
-        <v>0.1</v>
-      </c>
-      <c r="N18">
-        <v>-0.1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0.4</v>
-      </c>
-      <c r="R18">
-        <v>0.5</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>7</v>
-      </c>
-      <c r="U18">
-        <v>0.5</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0.5</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0.05</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>819</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>819</v>
-      </c>
-      <c r="E19" t="s">
-        <v>711</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>20</v>
-      </c>
-      <c r="J19">
-        <v>0.5</v>
-      </c>
-      <c r="K19">
-        <v>2.70961</v>
-      </c>
-      <c r="L19">
-        <v>0.1</v>
-      </c>
-      <c r="M19">
-        <v>0.1</v>
-      </c>
-      <c r="N19">
-        <v>-0.1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0.4</v>
-      </c>
-      <c r="R19">
-        <v>0.5</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>8.128909999999999</v>
-      </c>
-      <c r="U19">
-        <v>0.5</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0.5</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0.05</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>820</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>820</v>
-      </c>
-      <c r="E20" t="s">
-        <v>720</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>20</v>
-      </c>
-      <c r="J20">
-        <v>0.5</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>0.1</v>
-      </c>
-      <c r="M20">
-        <v>0.1</v>
-      </c>
-      <c r="N20">
-        <v>-0.1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0.4</v>
-      </c>
-      <c r="R20">
-        <v>0.5</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>9.00009</v>
-      </c>
-      <c r="U20">
-        <v>0.5</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0.5</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0.05</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>821</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>821</v>
-      </c>
-      <c r="E21" t="s">
-        <v>721</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>25</v>
-      </c>
-      <c r="J21">
-        <v>0.5</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>0.1</v>
-      </c>
-      <c r="M21">
-        <v>0.1</v>
-      </c>
-      <c r="N21">
-        <v>-0.1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0.4</v>
-      </c>
-      <c r="R21">
-        <v>0.5</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>10</v>
-      </c>
-      <c r="U21">
-        <v>0.5</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0.5</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0.05</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
         <v>0</v>
       </c>
     </row>
@@ -14104,7 +13483,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14145,10 +13524,10 @@
         <v>730</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>731</v>
@@ -14168,13 +13547,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E2" t="s">
         <v>689</v>
@@ -14218,13 +13597,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="E3" t="s">
         <v>690</v>
@@ -14268,13 +13647,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="E4" t="s">
         <v>691</v>
@@ -14318,13 +13697,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="E5" t="s">
         <v>692</v>
@@ -14368,16 +13747,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="E6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14404,10 +13783,10 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>1.11874</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <v>3.35624</v>
+        <v>6.30006</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -14418,16 +13797,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="E7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14436,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -14468,16 +13847,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="E8" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -14486,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -14504,10 +13883,10 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>6.30006</v>
+        <v>9.00009</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -14518,16 +13897,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="E9" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14554,10 +13933,10 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>6.30006</v>
+        <v>9.00009</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -14568,16 +13947,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="E10" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14604,10 +13983,10 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>9.00009</v>
+        <v>6.30006</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -14618,16 +13997,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="E11" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14636,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -14668,16 +14047,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="E12" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -14686,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -14704,10 +14083,10 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O12">
-        <v>9.00009</v>
+        <v>6.30006</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -14718,16 +14097,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="E13" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -14754,262 +14133,12 @@
         <v>0.1</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.51816</v>
       </c>
       <c r="O13">
-        <v>6.30006</v>
+        <v>5.06054</v>
       </c>
       <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>836</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>836</v>
-      </c>
-      <c r="E14" t="s">
-        <v>717</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0.04</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.1</v>
-      </c>
-      <c r="N14">
-        <v>2.1</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>837</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>837</v>
-      </c>
-      <c r="E15" t="s">
-        <v>718</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0.05</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.1</v>
-      </c>
-      <c r="N15">
-        <v>2.1</v>
-      </c>
-      <c r="O15">
-        <v>6.30006</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>838</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>838</v>
-      </c>
-      <c r="E16" t="s">
-        <v>719</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0.05</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.1</v>
-      </c>
-      <c r="N16">
-        <v>1.51816</v>
-      </c>
-      <c r="O16">
-        <v>5.06054</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>839</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>839</v>
-      </c>
-      <c r="E17" t="s">
-        <v>723</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0.05</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.1</v>
-      </c>
-      <c r="N17">
-        <v>2.1</v>
-      </c>
-      <c r="O17">
-        <v>6.30006</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>840</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>840</v>
-      </c>
-      <c r="E18" t="s">
-        <v>724</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0.04</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.1</v>
-      </c>
-      <c r="N18">
-        <v>0.918892</v>
-      </c>
-      <c r="O18">
-        <v>2.7567</v>
-      </c>
-      <c r="P18">
         <v>0</v>
       </c>
     </row>
@@ -15046,22 +14175,22 @@
         <v>725</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>785</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -15069,13 +14198,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="E2" t="s">
         <v>676</v>
@@ -15104,13 +14233,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="E3" t="s">
         <v>677</v>
@@ -15139,13 +14268,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="E4" t="s">
         <v>678</v>
@@ -15174,13 +14303,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="E5" t="s">
         <v>679</v>
@@ -15209,13 +14338,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="E6" t="s">
         <v>680</v>
@@ -15244,13 +14373,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="E7" t="s">
         <v>681</v>
@@ -15279,13 +14408,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="E8" t="s">
         <v>682</v>
@@ -15314,13 +14443,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="E9" t="s">
         <v>683</v>
@@ -15349,13 +14478,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="E10" t="s">
         <v>684</v>
@@ -15384,13 +14513,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="E11" t="s">
         <v>685</v>
@@ -15419,13 +14548,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="E12" t="s">
         <v>686</v>
@@ -15454,13 +14583,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="E13" t="s">
         <v>687</v>
@@ -15489,13 +14618,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="E14" t="s">
         <v>688</v>
@@ -15524,13 +14653,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="E15" t="s">
         <v>689</v>
@@ -15559,13 +14688,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="E16" t="s">
         <v>690</v>
@@ -15594,13 +14723,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="E17" t="s">
         <v>691</v>
@@ -15629,13 +14758,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="E18" t="s">
         <v>692</v>
@@ -15664,13 +14793,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="E19" t="s">
         <v>693</v>
@@ -15699,13 +14828,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="E20" t="s">
         <v>694</v>
@@ -15734,13 +14863,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="E21" t="s">
         <v>695</v>
@@ -15769,13 +14898,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="E22" t="s">
         <v>696</v>
@@ -15804,13 +14933,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="E23" t="s">
         <v>697</v>
@@ -15839,13 +14968,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="E24" t="s">
         <v>698</v>
@@ -15874,13 +15003,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="E25" t="s">
         <v>699</v>
@@ -15909,13 +15038,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="E26" t="s">
         <v>700</v>
@@ -15944,13 +15073,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="E27" t="s">
         <v>701</v>
@@ -15979,13 +15108,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="E28" t="s">
         <v>702</v>
@@ -16014,13 +15143,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="E29" t="s">
         <v>703</v>
@@ -16049,13 +15178,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="E30" t="s">
         <v>704</v>
@@ -16084,13 +15213,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="E31" t="s">
         <v>705</v>
@@ -16119,13 +15248,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="E32" t="s">
         <v>706</v>
@@ -16154,13 +15283,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="E33" t="s">
         <v>707</v>
@@ -16189,13 +15318,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="E34" t="s">
         <v>708</v>
@@ -16224,13 +15353,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="E35" t="s">
         <v>709</v>
@@ -16259,13 +15388,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="E36" t="s">
         <v>710</v>
@@ -16294,13 +15423,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="E37" t="s">
         <v>711</v>
@@ -16329,13 +15458,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="E38" t="s">
         <v>712</v>
@@ -16364,13 +15493,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="E39" t="s">
         <v>713</v>
@@ -16399,13 +15528,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="E40" t="s">
         <v>714</v>
@@ -16434,13 +15563,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="E41" t="s">
         <v>715</v>
@@ -16469,13 +15598,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="E42" t="s">
         <v>716</v>
@@ -16504,13 +15633,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="E43" t="s">
         <v>717</v>
@@ -16539,13 +15668,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="E44" t="s">
         <v>718</v>
@@ -16574,13 +15703,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="E45" t="s">
         <v>719</v>
@@ -16609,13 +15738,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="E46" t="s">
         <v>720</v>
@@ -16644,13 +15773,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="E47" t="s">
         <v>721</v>
@@ -16679,13 +15808,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="E48" t="s">
         <v>722</v>
@@ -16714,13 +15843,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="E49" t="s">
         <v>723</v>
@@ -16749,13 +15878,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="E50" t="s">
         <v>724</v>
@@ -16786,7 +15915,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16818,49 +15947,49 @@
         <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>665</v>
@@ -16874,13 +16003,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="E2">
         <v>65</v>
@@ -16948,22 +16077,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>118.8</v>
+        <v>33.5</v>
       </c>
       <c r="H3">
         <v>0.1</v>
@@ -17022,22 +16151,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>237.6</v>
+        <v>33.5</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -17096,22 +16225,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="E5">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>2.04</v>
+        <v>33.5</v>
       </c>
       <c r="H5">
         <v>0.1</v>
@@ -17170,22 +16299,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="E6">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>180</v>
+        <v>3.84</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -17244,22 +16373,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="E7">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>156.06</v>
+        <v>118.8</v>
       </c>
       <c r="H7">
         <v>0.1</v>
@@ -17318,22 +16447,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="E8">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>156.06</v>
+        <v>237.6</v>
       </c>
       <c r="H8">
         <v>0.1</v>
@@ -17392,22 +16521,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="E9">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G9">
-        <v>156.06</v>
+        <v>2.04</v>
       </c>
       <c r="H9">
         <v>0.1</v>
@@ -17466,22 +16595,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="E10">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>535.6799999999999</v>
+        <v>180</v>
       </c>
       <c r="H10">
         <v>0.1</v>
@@ -17540,22 +16669,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="E11">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G11">
-        <v>535.6799999999999</v>
+        <v>156.06</v>
       </c>
       <c r="H11">
         <v>0.1</v>
@@ -17614,22 +16743,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="E12">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12">
-        <v>120.6</v>
+        <v>156.06</v>
       </c>
       <c r="H12">
         <v>0.1</v>
@@ -17680,6 +16809,1042 @@
         <v>1</v>
       </c>
       <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>907</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>907</v>
+      </c>
+      <c r="E13">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>156.06</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1.2</v>
+      </c>
+      <c r="O13">
+        <v>0.8</v>
+      </c>
+      <c r="P13">
+        <v>0.4</v>
+      </c>
+      <c r="Q13">
+        <v>-1.5</v>
+      </c>
+      <c r="R13">
+        <v>0.1</v>
+      </c>
+      <c r="S13">
+        <v>0.7</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>-1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>908</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>908</v>
+      </c>
+      <c r="E14">
+        <v>135</v>
+      </c>
+      <c r="F14">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>535.6799999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1.2</v>
+      </c>
+      <c r="O14">
+        <v>0.8</v>
+      </c>
+      <c r="P14">
+        <v>0.4</v>
+      </c>
+      <c r="Q14">
+        <v>-1.5</v>
+      </c>
+      <c r="R14">
+        <v>0.1</v>
+      </c>
+      <c r="S14">
+        <v>0.7</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>-1</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>909</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>909</v>
+      </c>
+      <c r="E15">
+        <v>136</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>535.6799999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1.2</v>
+      </c>
+      <c r="O15">
+        <v>0.8</v>
+      </c>
+      <c r="P15">
+        <v>0.4</v>
+      </c>
+      <c r="Q15">
+        <v>-1.5</v>
+      </c>
+      <c r="R15">
+        <v>0.1</v>
+      </c>
+      <c r="S15">
+        <v>0.7</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>-1</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>910</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>910</v>
+      </c>
+      <c r="E16">
+        <v>147</v>
+      </c>
+      <c r="F16">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>120.6</v>
+      </c>
+      <c r="H16">
+        <v>0.1</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1.2</v>
+      </c>
+      <c r="O16">
+        <v>0.8</v>
+      </c>
+      <c r="P16">
+        <v>0.4</v>
+      </c>
+      <c r="Q16">
+        <v>-1.5</v>
+      </c>
+      <c r="R16">
+        <v>0.1</v>
+      </c>
+      <c r="S16">
+        <v>0.7</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>-1</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>911</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>911</v>
+      </c>
+      <c r="E17">
+        <v>152</v>
+      </c>
+      <c r="F17">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>92.67</v>
+      </c>
+      <c r="H17">
+        <v>0.1</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1.2</v>
+      </c>
+      <c r="O17">
+        <v>0.8</v>
+      </c>
+      <c r="P17">
+        <v>0.4</v>
+      </c>
+      <c r="Q17">
+        <v>-1.5</v>
+      </c>
+      <c r="R17">
+        <v>0.1</v>
+      </c>
+      <c r="S17">
+        <v>0.7</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>-1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>912</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>912</v>
+      </c>
+      <c r="E18">
+        <v>153</v>
+      </c>
+      <c r="F18">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>92.67</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0.5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1.2</v>
+      </c>
+      <c r="O18">
+        <v>0.8</v>
+      </c>
+      <c r="P18">
+        <v>0.4</v>
+      </c>
+      <c r="Q18">
+        <v>-1.5</v>
+      </c>
+      <c r="R18">
+        <v>0.1</v>
+      </c>
+      <c r="S18">
+        <v>0.7</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>-1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>913</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>913</v>
+      </c>
+      <c r="E19">
+        <v>154</v>
+      </c>
+      <c r="F19">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>92.67</v>
+      </c>
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1.2</v>
+      </c>
+      <c r="O19">
+        <v>0.8</v>
+      </c>
+      <c r="P19">
+        <v>0.4</v>
+      </c>
+      <c r="Q19">
+        <v>-1.5</v>
+      </c>
+      <c r="R19">
+        <v>0.1</v>
+      </c>
+      <c r="S19">
+        <v>0.7</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>-1</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>914</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>914</v>
+      </c>
+      <c r="E20">
+        <v>155</v>
+      </c>
+      <c r="F20">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>92.67</v>
+      </c>
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1.2</v>
+      </c>
+      <c r="O20">
+        <v>0.8</v>
+      </c>
+      <c r="P20">
+        <v>0.4</v>
+      </c>
+      <c r="Q20">
+        <v>-1.5</v>
+      </c>
+      <c r="R20">
+        <v>0.1</v>
+      </c>
+      <c r="S20">
+        <v>0.7</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>-1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>915</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>915</v>
+      </c>
+      <c r="E21">
+        <v>161</v>
+      </c>
+      <c r="F21">
+        <v>37</v>
+      </c>
+      <c r="G21">
+        <v>166.32</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1.2</v>
+      </c>
+      <c r="O21">
+        <v>0.8</v>
+      </c>
+      <c r="P21">
+        <v>0.4</v>
+      </c>
+      <c r="Q21">
+        <v>-1.5</v>
+      </c>
+      <c r="R21">
+        <v>0.1</v>
+      </c>
+      <c r="S21">
+        <v>0.7</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>-1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>916</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>916</v>
+      </c>
+      <c r="E22">
+        <v>165</v>
+      </c>
+      <c r="F22">
+        <v>39</v>
+      </c>
+      <c r="G22">
+        <v>31.2</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0.5</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1.2</v>
+      </c>
+      <c r="O22">
+        <v>0.8</v>
+      </c>
+      <c r="P22">
+        <v>0.4</v>
+      </c>
+      <c r="Q22">
+        <v>-1.5</v>
+      </c>
+      <c r="R22">
+        <v>0.1</v>
+      </c>
+      <c r="S22">
+        <v>0.7</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>-1</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>917</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>917</v>
+      </c>
+      <c r="E23">
+        <v>182</v>
+      </c>
+      <c r="F23">
+        <v>45</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1.2</v>
+      </c>
+      <c r="O23">
+        <v>0.8</v>
+      </c>
+      <c r="P23">
+        <v>0.4</v>
+      </c>
+      <c r="Q23">
+        <v>-1.5</v>
+      </c>
+      <c r="R23">
+        <v>0.1</v>
+      </c>
+      <c r="S23">
+        <v>0.7</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>-1</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>918</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>918</v>
+      </c>
+      <c r="E24">
+        <v>183</v>
+      </c>
+      <c r="F24">
+        <v>46</v>
+      </c>
+      <c r="G24">
+        <v>31.92</v>
+      </c>
+      <c r="H24">
+        <v>0.1</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1.2</v>
+      </c>
+      <c r="O24">
+        <v>0.8</v>
+      </c>
+      <c r="P24">
+        <v>0.4</v>
+      </c>
+      <c r="Q24">
+        <v>-1.5</v>
+      </c>
+      <c r="R24">
+        <v>0.1</v>
+      </c>
+      <c r="S24">
+        <v>0.7</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>-1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>919</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>919</v>
+      </c>
+      <c r="E25">
+        <v>196</v>
+      </c>
+      <c r="F25">
+        <v>48</v>
+      </c>
+      <c r="G25">
+        <v>81</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1.2</v>
+      </c>
+      <c r="O25">
+        <v>0.8</v>
+      </c>
+      <c r="P25">
+        <v>0.4</v>
+      </c>
+      <c r="Q25">
+        <v>-1.5</v>
+      </c>
+      <c r="R25">
+        <v>0.1</v>
+      </c>
+      <c r="S25">
+        <v>0.7</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>-1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>920</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>920</v>
+      </c>
+      <c r="E26">
+        <v>197</v>
+      </c>
+      <c r="F26">
+        <v>49</v>
+      </c>
+      <c r="G26">
+        <v>81</v>
+      </c>
+      <c r="H26">
+        <v>0.1</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0.5</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1.2</v>
+      </c>
+      <c r="O26">
+        <v>0.8</v>
+      </c>
+      <c r="P26">
+        <v>0.4</v>
+      </c>
+      <c r="Q26">
+        <v>-1.5</v>
+      </c>
+      <c r="R26">
+        <v>0.1</v>
+      </c>
+      <c r="S26">
+        <v>0.7</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>-1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
         <v>1</v>
       </c>
     </row>
@@ -17690,7 +17855,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17883,7 +18048,7 @@
         <v>968</v>
       </c>
       <c r="E2" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -18050,7 +18215,7 @@
         <v>969</v>
       </c>
       <c r="E3" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -18217,7 +18382,7 @@
         <v>970</v>
       </c>
       <c r="E4" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -18384,7 +18549,7 @@
         <v>971</v>
       </c>
       <c r="E5" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -18551,7 +18716,7 @@
         <v>972</v>
       </c>
       <c r="E6" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -18718,7 +18883,7 @@
         <v>973</v>
       </c>
       <c r="E7" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -18885,7 +19050,7 @@
         <v>974</v>
       </c>
       <c r="E8" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -19052,7 +19217,7 @@
         <v>975</v>
       </c>
       <c r="E9" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -19219,7 +19384,7 @@
         <v>976</v>
       </c>
       <c r="E10" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -19386,7 +19551,7 @@
         <v>977</v>
       </c>
       <c r="E11" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -19553,7 +19718,7 @@
         <v>978</v>
       </c>
       <c r="E12" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -19703,6 +19868,2344 @@
         <v>1</v>
       </c>
       <c r="BD12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>979</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>979</v>
+      </c>
+      <c r="E13" t="s">
+        <v>907</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.8</v>
+      </c>
+      <c r="M13">
+        <v>1.2</v>
+      </c>
+      <c r="N13">
+        <v>0.02</v>
+      </c>
+      <c r="O13">
+        <v>-0.1</v>
+      </c>
+      <c r="P13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>999</v>
+      </c>
+      <c r="S13">
+        <v>-999</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>-2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0.02</v>
+      </c>
+      <c r="Y13">
+        <v>999</v>
+      </c>
+      <c r="Z13">
+        <v>-999</v>
+      </c>
+      <c r="AA13">
+        <v>999</v>
+      </c>
+      <c r="AB13">
+        <v>-999</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>0.02</v>
+      </c>
+      <c r="AI13">
+        <v>999</v>
+      </c>
+      <c r="AJ13">
+        <v>-999</v>
+      </c>
+      <c r="AK13">
+        <v>999</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>10</v>
+      </c>
+      <c r="AN13">
+        <v>0.02</v>
+      </c>
+      <c r="AO13">
+        <v>0.2</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
+        <v>0.4</v>
+      </c>
+      <c r="AR13">
+        <v>4</v>
+      </c>
+      <c r="AS13">
+        <v>0.8</v>
+      </c>
+      <c r="AT13">
+        <v>8</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>10</v>
+      </c>
+      <c r="AW13">
+        <v>0.2</v>
+      </c>
+      <c r="AX13">
+        <v>2</v>
+      </c>
+      <c r="AY13">
+        <v>0.4</v>
+      </c>
+      <c r="AZ13">
+        <v>4</v>
+      </c>
+      <c r="BA13">
+        <v>0.8</v>
+      </c>
+      <c r="BB13">
+        <v>8</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>980</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>980</v>
+      </c>
+      <c r="E14" t="s">
+        <v>908</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.8</v>
+      </c>
+      <c r="M14">
+        <v>1.2</v>
+      </c>
+      <c r="N14">
+        <v>0.02</v>
+      </c>
+      <c r="O14">
+        <v>-0.1</v>
+      </c>
+      <c r="P14">
+        <v>0.1</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>999</v>
+      </c>
+      <c r="S14">
+        <v>-999</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>-2</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0.02</v>
+      </c>
+      <c r="Y14">
+        <v>999</v>
+      </c>
+      <c r="Z14">
+        <v>-999</v>
+      </c>
+      <c r="AA14">
+        <v>999</v>
+      </c>
+      <c r="AB14">
+        <v>-999</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>0.02</v>
+      </c>
+      <c r="AI14">
+        <v>999</v>
+      </c>
+      <c r="AJ14">
+        <v>-999</v>
+      </c>
+      <c r="AK14">
+        <v>999</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>10</v>
+      </c>
+      <c r="AN14">
+        <v>0.02</v>
+      </c>
+      <c r="AO14">
+        <v>0.2</v>
+      </c>
+      <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
+        <v>0.4</v>
+      </c>
+      <c r="AR14">
+        <v>4</v>
+      </c>
+      <c r="AS14">
+        <v>0.8</v>
+      </c>
+      <c r="AT14">
+        <v>8</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>10</v>
+      </c>
+      <c r="AW14">
+        <v>0.2</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>0.4</v>
+      </c>
+      <c r="AZ14">
+        <v>4</v>
+      </c>
+      <c r="BA14">
+        <v>0.8</v>
+      </c>
+      <c r="BB14">
+        <v>8</v>
+      </c>
+      <c r="BC14">
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>981</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>981</v>
+      </c>
+      <c r="E15" t="s">
+        <v>909</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.8</v>
+      </c>
+      <c r="M15">
+        <v>1.2</v>
+      </c>
+      <c r="N15">
+        <v>0.02</v>
+      </c>
+      <c r="O15">
+        <v>-0.1</v>
+      </c>
+      <c r="P15">
+        <v>0.1</v>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+      <c r="R15">
+        <v>999</v>
+      </c>
+      <c r="S15">
+        <v>-999</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>-2</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0.02</v>
+      </c>
+      <c r="Y15">
+        <v>999</v>
+      </c>
+      <c r="Z15">
+        <v>-999</v>
+      </c>
+      <c r="AA15">
+        <v>999</v>
+      </c>
+      <c r="AB15">
+        <v>-999</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>0.02</v>
+      </c>
+      <c r="AI15">
+        <v>999</v>
+      </c>
+      <c r="AJ15">
+        <v>-999</v>
+      </c>
+      <c r="AK15">
+        <v>999</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>10</v>
+      </c>
+      <c r="AN15">
+        <v>0.02</v>
+      </c>
+      <c r="AO15">
+        <v>0.2</v>
+      </c>
+      <c r="AP15">
+        <v>2</v>
+      </c>
+      <c r="AQ15">
+        <v>0.4</v>
+      </c>
+      <c r="AR15">
+        <v>4</v>
+      </c>
+      <c r="AS15">
+        <v>0.8</v>
+      </c>
+      <c r="AT15">
+        <v>8</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>10</v>
+      </c>
+      <c r="AW15">
+        <v>0.2</v>
+      </c>
+      <c r="AX15">
+        <v>2</v>
+      </c>
+      <c r="AY15">
+        <v>0.4</v>
+      </c>
+      <c r="AZ15">
+        <v>4</v>
+      </c>
+      <c r="BA15">
+        <v>0.8</v>
+      </c>
+      <c r="BB15">
+        <v>8</v>
+      </c>
+      <c r="BC15">
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>982</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>982</v>
+      </c>
+      <c r="E16" t="s">
+        <v>910</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.8</v>
+      </c>
+      <c r="M16">
+        <v>1.2</v>
+      </c>
+      <c r="N16">
+        <v>0.02</v>
+      </c>
+      <c r="O16">
+        <v>-0.1</v>
+      </c>
+      <c r="P16">
+        <v>0.1</v>
+      </c>
+      <c r="Q16">
+        <v>20</v>
+      </c>
+      <c r="R16">
+        <v>999</v>
+      </c>
+      <c r="S16">
+        <v>-999</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>-2</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0.02</v>
+      </c>
+      <c r="Y16">
+        <v>999</v>
+      </c>
+      <c r="Z16">
+        <v>-999</v>
+      </c>
+      <c r="AA16">
+        <v>999</v>
+      </c>
+      <c r="AB16">
+        <v>-999</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>0.02</v>
+      </c>
+      <c r="AI16">
+        <v>999</v>
+      </c>
+      <c r="AJ16">
+        <v>-999</v>
+      </c>
+      <c r="AK16">
+        <v>999</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>10</v>
+      </c>
+      <c r="AN16">
+        <v>0.02</v>
+      </c>
+      <c r="AO16">
+        <v>0.2</v>
+      </c>
+      <c r="AP16">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
+        <v>0.4</v>
+      </c>
+      <c r="AR16">
+        <v>4</v>
+      </c>
+      <c r="AS16">
+        <v>0.8</v>
+      </c>
+      <c r="AT16">
+        <v>8</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>10</v>
+      </c>
+      <c r="AW16">
+        <v>0.2</v>
+      </c>
+      <c r="AX16">
+        <v>2</v>
+      </c>
+      <c r="AY16">
+        <v>0.4</v>
+      </c>
+      <c r="AZ16">
+        <v>4</v>
+      </c>
+      <c r="BA16">
+        <v>0.8</v>
+      </c>
+      <c r="BB16">
+        <v>8</v>
+      </c>
+      <c r="BC16">
+        <v>1</v>
+      </c>
+      <c r="BD16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>983</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>983</v>
+      </c>
+      <c r="E17" t="s">
+        <v>911</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.8</v>
+      </c>
+      <c r="M17">
+        <v>1.2</v>
+      </c>
+      <c r="N17">
+        <v>0.02</v>
+      </c>
+      <c r="O17">
+        <v>-0.1</v>
+      </c>
+      <c r="P17">
+        <v>0.1</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>999</v>
+      </c>
+      <c r="S17">
+        <v>-999</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>-2</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0.02</v>
+      </c>
+      <c r="Y17">
+        <v>999</v>
+      </c>
+      <c r="Z17">
+        <v>-999</v>
+      </c>
+      <c r="AA17">
+        <v>999</v>
+      </c>
+      <c r="AB17">
+        <v>-999</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>0.02</v>
+      </c>
+      <c r="AI17">
+        <v>999</v>
+      </c>
+      <c r="AJ17">
+        <v>-999</v>
+      </c>
+      <c r="AK17">
+        <v>999</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>10</v>
+      </c>
+      <c r="AN17">
+        <v>0.02</v>
+      </c>
+      <c r="AO17">
+        <v>0.2</v>
+      </c>
+      <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
+        <v>0.4</v>
+      </c>
+      <c r="AR17">
+        <v>4</v>
+      </c>
+      <c r="AS17">
+        <v>0.8</v>
+      </c>
+      <c r="AT17">
+        <v>8</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>10</v>
+      </c>
+      <c r="AW17">
+        <v>0.2</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+      <c r="AY17">
+        <v>0.4</v>
+      </c>
+      <c r="AZ17">
+        <v>4</v>
+      </c>
+      <c r="BA17">
+        <v>0.8</v>
+      </c>
+      <c r="BB17">
+        <v>8</v>
+      </c>
+      <c r="BC17">
+        <v>1</v>
+      </c>
+      <c r="BD17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>984</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>984</v>
+      </c>
+      <c r="E18" t="s">
+        <v>912</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.8</v>
+      </c>
+      <c r="M18">
+        <v>1.2</v>
+      </c>
+      <c r="N18">
+        <v>0.02</v>
+      </c>
+      <c r="O18">
+        <v>-0.1</v>
+      </c>
+      <c r="P18">
+        <v>0.1</v>
+      </c>
+      <c r="Q18">
+        <v>20</v>
+      </c>
+      <c r="R18">
+        <v>999</v>
+      </c>
+      <c r="S18">
+        <v>-999</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>-2</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0.02</v>
+      </c>
+      <c r="Y18">
+        <v>999</v>
+      </c>
+      <c r="Z18">
+        <v>-999</v>
+      </c>
+      <c r="AA18">
+        <v>999</v>
+      </c>
+      <c r="AB18">
+        <v>-999</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>0.02</v>
+      </c>
+      <c r="AI18">
+        <v>999</v>
+      </c>
+      <c r="AJ18">
+        <v>-999</v>
+      </c>
+      <c r="AK18">
+        <v>999</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>10</v>
+      </c>
+      <c r="AN18">
+        <v>0.02</v>
+      </c>
+      <c r="AO18">
+        <v>0.2</v>
+      </c>
+      <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
+        <v>0.4</v>
+      </c>
+      <c r="AR18">
+        <v>4</v>
+      </c>
+      <c r="AS18">
+        <v>0.8</v>
+      </c>
+      <c r="AT18">
+        <v>8</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <v>10</v>
+      </c>
+      <c r="AW18">
+        <v>0.2</v>
+      </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
+      <c r="AY18">
+        <v>0.4</v>
+      </c>
+      <c r="AZ18">
+        <v>4</v>
+      </c>
+      <c r="BA18">
+        <v>0.8</v>
+      </c>
+      <c r="BB18">
+        <v>8</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>985</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>985</v>
+      </c>
+      <c r="E19" t="s">
+        <v>913</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.8</v>
+      </c>
+      <c r="M19">
+        <v>1.2</v>
+      </c>
+      <c r="N19">
+        <v>0.02</v>
+      </c>
+      <c r="O19">
+        <v>-0.1</v>
+      </c>
+      <c r="P19">
+        <v>0.1</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+      <c r="R19">
+        <v>999</v>
+      </c>
+      <c r="S19">
+        <v>-999</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>-2</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0.02</v>
+      </c>
+      <c r="Y19">
+        <v>999</v>
+      </c>
+      <c r="Z19">
+        <v>-999</v>
+      </c>
+      <c r="AA19">
+        <v>999</v>
+      </c>
+      <c r="AB19">
+        <v>-999</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>0.02</v>
+      </c>
+      <c r="AI19">
+        <v>999</v>
+      </c>
+      <c r="AJ19">
+        <v>-999</v>
+      </c>
+      <c r="AK19">
+        <v>999</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>10</v>
+      </c>
+      <c r="AN19">
+        <v>0.02</v>
+      </c>
+      <c r="AO19">
+        <v>0.2</v>
+      </c>
+      <c r="AP19">
+        <v>2</v>
+      </c>
+      <c r="AQ19">
+        <v>0.4</v>
+      </c>
+      <c r="AR19">
+        <v>4</v>
+      </c>
+      <c r="AS19">
+        <v>0.8</v>
+      </c>
+      <c r="AT19">
+        <v>8</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>10</v>
+      </c>
+      <c r="AW19">
+        <v>0.2</v>
+      </c>
+      <c r="AX19">
+        <v>2</v>
+      </c>
+      <c r="AY19">
+        <v>0.4</v>
+      </c>
+      <c r="AZ19">
+        <v>4</v>
+      </c>
+      <c r="BA19">
+        <v>0.8</v>
+      </c>
+      <c r="BB19">
+        <v>8</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>986</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>986</v>
+      </c>
+      <c r="E20" t="s">
+        <v>914</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.8</v>
+      </c>
+      <c r="M20">
+        <v>1.2</v>
+      </c>
+      <c r="N20">
+        <v>0.02</v>
+      </c>
+      <c r="O20">
+        <v>-0.1</v>
+      </c>
+      <c r="P20">
+        <v>0.1</v>
+      </c>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+      <c r="R20">
+        <v>999</v>
+      </c>
+      <c r="S20">
+        <v>-999</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>-2</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0.02</v>
+      </c>
+      <c r="Y20">
+        <v>999</v>
+      </c>
+      <c r="Z20">
+        <v>-999</v>
+      </c>
+      <c r="AA20">
+        <v>999</v>
+      </c>
+      <c r="AB20">
+        <v>-999</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>0.02</v>
+      </c>
+      <c r="AI20">
+        <v>999</v>
+      </c>
+      <c r="AJ20">
+        <v>-999</v>
+      </c>
+      <c r="AK20">
+        <v>999</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>10</v>
+      </c>
+      <c r="AN20">
+        <v>0.02</v>
+      </c>
+      <c r="AO20">
+        <v>0.2</v>
+      </c>
+      <c r="AP20">
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <v>0.4</v>
+      </c>
+      <c r="AR20">
+        <v>4</v>
+      </c>
+      <c r="AS20">
+        <v>0.8</v>
+      </c>
+      <c r="AT20">
+        <v>8</v>
+      </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>10</v>
+      </c>
+      <c r="AW20">
+        <v>0.2</v>
+      </c>
+      <c r="AX20">
+        <v>2</v>
+      </c>
+      <c r="AY20">
+        <v>0.4</v>
+      </c>
+      <c r="AZ20">
+        <v>4</v>
+      </c>
+      <c r="BA20">
+        <v>0.8</v>
+      </c>
+      <c r="BB20">
+        <v>8</v>
+      </c>
+      <c r="BC20">
+        <v>1</v>
+      </c>
+      <c r="BD20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>987</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>987</v>
+      </c>
+      <c r="E21" t="s">
+        <v>915</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.8</v>
+      </c>
+      <c r="M21">
+        <v>1.2</v>
+      </c>
+      <c r="N21">
+        <v>0.02</v>
+      </c>
+      <c r="O21">
+        <v>-0.1</v>
+      </c>
+      <c r="P21">
+        <v>0.1</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <v>999</v>
+      </c>
+      <c r="S21">
+        <v>-999</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>-2</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0.02</v>
+      </c>
+      <c r="Y21">
+        <v>999</v>
+      </c>
+      <c r="Z21">
+        <v>-999</v>
+      </c>
+      <c r="AA21">
+        <v>999</v>
+      </c>
+      <c r="AB21">
+        <v>-999</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>0.02</v>
+      </c>
+      <c r="AI21">
+        <v>999</v>
+      </c>
+      <c r="AJ21">
+        <v>-999</v>
+      </c>
+      <c r="AK21">
+        <v>999</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>10</v>
+      </c>
+      <c r="AN21">
+        <v>0.02</v>
+      </c>
+      <c r="AO21">
+        <v>0.2</v>
+      </c>
+      <c r="AP21">
+        <v>2</v>
+      </c>
+      <c r="AQ21">
+        <v>0.4</v>
+      </c>
+      <c r="AR21">
+        <v>4</v>
+      </c>
+      <c r="AS21">
+        <v>0.8</v>
+      </c>
+      <c r="AT21">
+        <v>8</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
+        <v>10</v>
+      </c>
+      <c r="AW21">
+        <v>0.2</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>0.4</v>
+      </c>
+      <c r="AZ21">
+        <v>4</v>
+      </c>
+      <c r="BA21">
+        <v>0.8</v>
+      </c>
+      <c r="BB21">
+        <v>8</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>988</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>988</v>
+      </c>
+      <c r="E22" t="s">
+        <v>916</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.8</v>
+      </c>
+      <c r="M22">
+        <v>1.2</v>
+      </c>
+      <c r="N22">
+        <v>0.02</v>
+      </c>
+      <c r="O22">
+        <v>-0.1</v>
+      </c>
+      <c r="P22">
+        <v>0.1</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22">
+        <v>999</v>
+      </c>
+      <c r="S22">
+        <v>-999</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>-2</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0.02</v>
+      </c>
+      <c r="Y22">
+        <v>999</v>
+      </c>
+      <c r="Z22">
+        <v>-999</v>
+      </c>
+      <c r="AA22">
+        <v>999</v>
+      </c>
+      <c r="AB22">
+        <v>-999</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>0.02</v>
+      </c>
+      <c r="AI22">
+        <v>999</v>
+      </c>
+      <c r="AJ22">
+        <v>-999</v>
+      </c>
+      <c r="AK22">
+        <v>999</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>10</v>
+      </c>
+      <c r="AN22">
+        <v>0.02</v>
+      </c>
+      <c r="AO22">
+        <v>0.2</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
+        <v>0.4</v>
+      </c>
+      <c r="AR22">
+        <v>4</v>
+      </c>
+      <c r="AS22">
+        <v>0.8</v>
+      </c>
+      <c r="AT22">
+        <v>8</v>
+      </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
+      <c r="AV22">
+        <v>10</v>
+      </c>
+      <c r="AW22">
+        <v>0.2</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>0.4</v>
+      </c>
+      <c r="AZ22">
+        <v>4</v>
+      </c>
+      <c r="BA22">
+        <v>0.8</v>
+      </c>
+      <c r="BB22">
+        <v>8</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>989</v>
+      </c>
+      <c r="E23" t="s">
+        <v>917</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.8</v>
+      </c>
+      <c r="M23">
+        <v>1.2</v>
+      </c>
+      <c r="N23">
+        <v>0.02</v>
+      </c>
+      <c r="O23">
+        <v>-0.1</v>
+      </c>
+      <c r="P23">
+        <v>0.1</v>
+      </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <v>999</v>
+      </c>
+      <c r="S23">
+        <v>-999</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>-2</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0.02</v>
+      </c>
+      <c r="Y23">
+        <v>999</v>
+      </c>
+      <c r="Z23">
+        <v>-999</v>
+      </c>
+      <c r="AA23">
+        <v>999</v>
+      </c>
+      <c r="AB23">
+        <v>-999</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>0.02</v>
+      </c>
+      <c r="AI23">
+        <v>999</v>
+      </c>
+      <c r="AJ23">
+        <v>-999</v>
+      </c>
+      <c r="AK23">
+        <v>999</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>10</v>
+      </c>
+      <c r="AN23">
+        <v>0.02</v>
+      </c>
+      <c r="AO23">
+        <v>0.2</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>0.4</v>
+      </c>
+      <c r="AR23">
+        <v>4</v>
+      </c>
+      <c r="AS23">
+        <v>0.8</v>
+      </c>
+      <c r="AT23">
+        <v>8</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>10</v>
+      </c>
+      <c r="AW23">
+        <v>0.2</v>
+      </c>
+      <c r="AX23">
+        <v>2</v>
+      </c>
+      <c r="AY23">
+        <v>0.4</v>
+      </c>
+      <c r="AZ23">
+        <v>4</v>
+      </c>
+      <c r="BA23">
+        <v>0.8</v>
+      </c>
+      <c r="BB23">
+        <v>8</v>
+      </c>
+      <c r="BC23">
+        <v>1</v>
+      </c>
+      <c r="BD23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>990</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>990</v>
+      </c>
+      <c r="E24" t="s">
+        <v>918</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.8</v>
+      </c>
+      <c r="M24">
+        <v>1.2</v>
+      </c>
+      <c r="N24">
+        <v>0.02</v>
+      </c>
+      <c r="O24">
+        <v>-0.1</v>
+      </c>
+      <c r="P24">
+        <v>0.1</v>
+      </c>
+      <c r="Q24">
+        <v>20</v>
+      </c>
+      <c r="R24">
+        <v>999</v>
+      </c>
+      <c r="S24">
+        <v>-999</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>-2</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0.02</v>
+      </c>
+      <c r="Y24">
+        <v>999</v>
+      </c>
+      <c r="Z24">
+        <v>-999</v>
+      </c>
+      <c r="AA24">
+        <v>999</v>
+      </c>
+      <c r="AB24">
+        <v>-999</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>0.02</v>
+      </c>
+      <c r="AI24">
+        <v>999</v>
+      </c>
+      <c r="AJ24">
+        <v>-999</v>
+      </c>
+      <c r="AK24">
+        <v>999</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>10</v>
+      </c>
+      <c r="AN24">
+        <v>0.02</v>
+      </c>
+      <c r="AO24">
+        <v>0.2</v>
+      </c>
+      <c r="AP24">
+        <v>2</v>
+      </c>
+      <c r="AQ24">
+        <v>0.4</v>
+      </c>
+      <c r="AR24">
+        <v>4</v>
+      </c>
+      <c r="AS24">
+        <v>0.8</v>
+      </c>
+      <c r="AT24">
+        <v>8</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AV24">
+        <v>10</v>
+      </c>
+      <c r="AW24">
+        <v>0.2</v>
+      </c>
+      <c r="AX24">
+        <v>2</v>
+      </c>
+      <c r="AY24">
+        <v>0.4</v>
+      </c>
+      <c r="AZ24">
+        <v>4</v>
+      </c>
+      <c r="BA24">
+        <v>0.8</v>
+      </c>
+      <c r="BB24">
+        <v>8</v>
+      </c>
+      <c r="BC24">
+        <v>1</v>
+      </c>
+      <c r="BD24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>991</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>991</v>
+      </c>
+      <c r="E25" t="s">
+        <v>919</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.8</v>
+      </c>
+      <c r="M25">
+        <v>1.2</v>
+      </c>
+      <c r="N25">
+        <v>0.02</v>
+      </c>
+      <c r="O25">
+        <v>-0.1</v>
+      </c>
+      <c r="P25">
+        <v>0.1</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+      <c r="R25">
+        <v>999</v>
+      </c>
+      <c r="S25">
+        <v>-999</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>-2</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0.02</v>
+      </c>
+      <c r="Y25">
+        <v>999</v>
+      </c>
+      <c r="Z25">
+        <v>-999</v>
+      </c>
+      <c r="AA25">
+        <v>999</v>
+      </c>
+      <c r="AB25">
+        <v>-999</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>0.02</v>
+      </c>
+      <c r="AI25">
+        <v>999</v>
+      </c>
+      <c r="AJ25">
+        <v>-999</v>
+      </c>
+      <c r="AK25">
+        <v>999</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>10</v>
+      </c>
+      <c r="AN25">
+        <v>0.02</v>
+      </c>
+      <c r="AO25">
+        <v>0.2</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>0.4</v>
+      </c>
+      <c r="AR25">
+        <v>4</v>
+      </c>
+      <c r="AS25">
+        <v>0.8</v>
+      </c>
+      <c r="AT25">
+        <v>8</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+      <c r="AV25">
+        <v>10</v>
+      </c>
+      <c r="AW25">
+        <v>0.2</v>
+      </c>
+      <c r="AX25">
+        <v>2</v>
+      </c>
+      <c r="AY25">
+        <v>0.4</v>
+      </c>
+      <c r="AZ25">
+        <v>4</v>
+      </c>
+      <c r="BA25">
+        <v>0.8</v>
+      </c>
+      <c r="BB25">
+        <v>8</v>
+      </c>
+      <c r="BC25">
+        <v>1</v>
+      </c>
+      <c r="BD25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>992</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>992</v>
+      </c>
+      <c r="E26" t="s">
+        <v>920</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0.8</v>
+      </c>
+      <c r="M26">
+        <v>1.2</v>
+      </c>
+      <c r="N26">
+        <v>0.02</v>
+      </c>
+      <c r="O26">
+        <v>-0.1</v>
+      </c>
+      <c r="P26">
+        <v>0.1</v>
+      </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
+      <c r="R26">
+        <v>999</v>
+      </c>
+      <c r="S26">
+        <v>-999</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>-2</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0.02</v>
+      </c>
+      <c r="Y26">
+        <v>999</v>
+      </c>
+      <c r="Z26">
+        <v>-999</v>
+      </c>
+      <c r="AA26">
+        <v>999</v>
+      </c>
+      <c r="AB26">
+        <v>-999</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>0.02</v>
+      </c>
+      <c r="AI26">
+        <v>999</v>
+      </c>
+      <c r="AJ26">
+        <v>-999</v>
+      </c>
+      <c r="AK26">
+        <v>999</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>10</v>
+      </c>
+      <c r="AN26">
+        <v>0.02</v>
+      </c>
+      <c r="AO26">
+        <v>0.2</v>
+      </c>
+      <c r="AP26">
+        <v>2</v>
+      </c>
+      <c r="AQ26">
+        <v>0.4</v>
+      </c>
+      <c r="AR26">
+        <v>4</v>
+      </c>
+      <c r="AS26">
+        <v>0.8</v>
+      </c>
+      <c r="AT26">
+        <v>8</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>10</v>
+      </c>
+      <c r="AW26">
+        <v>0.2</v>
+      </c>
+      <c r="AX26">
+        <v>2</v>
+      </c>
+      <c r="AY26">
+        <v>0.4</v>
+      </c>
+      <c r="AZ26">
+        <v>4</v>
+      </c>
+      <c r="BA26">
+        <v>0.8</v>
+      </c>
+      <c r="BB26">
+        <v>8</v>
+      </c>
+      <c r="BC26">
+        <v>1</v>
+      </c>
+      <c r="BD26">
         <v>12</v>
       </c>
     </row>
@@ -19713,7 +22216,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19736,61 +22239,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>982</v>
+        <v>996</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>991</v>
+        <v>1005</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>992</v>
+        <v>1006</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>993</v>
+        <v>1007</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>930</v>
@@ -19799,46 +22302,46 @@
         <v>931</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>998</v>
+        <v>1012</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>939</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1007</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -19846,13 +22349,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="E2" t="s">
         <v>968</v>
@@ -19953,19 +22456,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="E3" t="s">
         <v>969</v>
       </c>
       <c r="F3" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -20060,19 +22563,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="E4" t="s">
         <v>970</v>
       </c>
       <c r="F4" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -20167,19 +22670,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="E5" t="s">
         <v>971</v>
       </c>
       <c r="F5" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -20274,19 +22777,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="E6" t="s">
         <v>972</v>
       </c>
       <c r="F6" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -20381,19 +22884,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="E7" t="s">
         <v>973</v>
       </c>
       <c r="F7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -20488,19 +22991,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1014</v>
+        <v>1028</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1014</v>
+        <v>1028</v>
       </c>
       <c r="E8" t="s">
         <v>974</v>
       </c>
       <c r="F8" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -20595,19 +23098,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1015</v>
+        <v>1029</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1015</v>
+        <v>1029</v>
       </c>
       <c r="E9" t="s">
         <v>975</v>
       </c>
       <c r="F9" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -20702,19 +23205,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1016</v>
+        <v>1030</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1016</v>
+        <v>1030</v>
       </c>
       <c r="E10" t="s">
         <v>976</v>
       </c>
       <c r="F10" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -20809,19 +23312,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1017</v>
+        <v>1031</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1017</v>
+        <v>1031</v>
       </c>
       <c r="E11" t="s">
         <v>977</v>
       </c>
       <c r="F11" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -20916,19 +23419,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="E12" t="s">
         <v>978</v>
       </c>
       <c r="F12" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -21015,6 +23518,1504 @@
         <v>10</v>
       </c>
       <c r="AM12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F13" t="s">
+        <v>625</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.02</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0.1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0.8</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>999</v>
+      </c>
+      <c r="W13">
+        <v>-999</v>
+      </c>
+      <c r="X13">
+        <v>-0.1</v>
+      </c>
+      <c r="Y13">
+        <v>0.1</v>
+      </c>
+      <c r="Z13">
+        <v>999</v>
+      </c>
+      <c r="AA13">
+        <v>-999</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>0.1</v>
+      </c>
+      <c r="AD13">
+        <v>0.02</v>
+      </c>
+      <c r="AE13">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF13">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG13">
+        <v>0.05</v>
+      </c>
+      <c r="AH13">
+        <v>-0.05</v>
+      </c>
+      <c r="AI13">
+        <v>999</v>
+      </c>
+      <c r="AJ13">
+        <v>-999</v>
+      </c>
+      <c r="AK13">
+        <v>0.02</v>
+      </c>
+      <c r="AL13">
+        <v>10</v>
+      </c>
+      <c r="AM13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E14" t="s">
+        <v>980</v>
+      </c>
+      <c r="F14" t="s">
+        <v>628</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0.02</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0.1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0.8</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>999</v>
+      </c>
+      <c r="W14">
+        <v>-999</v>
+      </c>
+      <c r="X14">
+        <v>-0.1</v>
+      </c>
+      <c r="Y14">
+        <v>0.1</v>
+      </c>
+      <c r="Z14">
+        <v>999</v>
+      </c>
+      <c r="AA14">
+        <v>-999</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>0.1</v>
+      </c>
+      <c r="AD14">
+        <v>0.02</v>
+      </c>
+      <c r="AE14">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF14">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG14">
+        <v>0.05</v>
+      </c>
+      <c r="AH14">
+        <v>-0.05</v>
+      </c>
+      <c r="AI14">
+        <v>999</v>
+      </c>
+      <c r="AJ14">
+        <v>-999</v>
+      </c>
+      <c r="AK14">
+        <v>0.02</v>
+      </c>
+      <c r="AL14">
+        <v>10</v>
+      </c>
+      <c r="AM14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E15" t="s">
+        <v>981</v>
+      </c>
+      <c r="F15" t="s">
+        <v>629</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.02</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0.1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0.8</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>999</v>
+      </c>
+      <c r="W15">
+        <v>-999</v>
+      </c>
+      <c r="X15">
+        <v>-0.1</v>
+      </c>
+      <c r="Y15">
+        <v>0.1</v>
+      </c>
+      <c r="Z15">
+        <v>999</v>
+      </c>
+      <c r="AA15">
+        <v>-999</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>0.1</v>
+      </c>
+      <c r="AD15">
+        <v>0.02</v>
+      </c>
+      <c r="AE15">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF15">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG15">
+        <v>0.05</v>
+      </c>
+      <c r="AH15">
+        <v>-0.05</v>
+      </c>
+      <c r="AI15">
+        <v>999</v>
+      </c>
+      <c r="AJ15">
+        <v>-999</v>
+      </c>
+      <c r="AK15">
+        <v>0.02</v>
+      </c>
+      <c r="AL15">
+        <v>10</v>
+      </c>
+      <c r="AM15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E16" t="s">
+        <v>982</v>
+      </c>
+      <c r="F16" t="s">
+        <v>630</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.02</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0.1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0.8</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>999</v>
+      </c>
+      <c r="W16">
+        <v>-999</v>
+      </c>
+      <c r="X16">
+        <v>-0.1</v>
+      </c>
+      <c r="Y16">
+        <v>0.1</v>
+      </c>
+      <c r="Z16">
+        <v>999</v>
+      </c>
+      <c r="AA16">
+        <v>-999</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>0.1</v>
+      </c>
+      <c r="AD16">
+        <v>0.02</v>
+      </c>
+      <c r="AE16">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF16">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG16">
+        <v>0.05</v>
+      </c>
+      <c r="AH16">
+        <v>-0.05</v>
+      </c>
+      <c r="AI16">
+        <v>999</v>
+      </c>
+      <c r="AJ16">
+        <v>-999</v>
+      </c>
+      <c r="AK16">
+        <v>0.02</v>
+      </c>
+      <c r="AL16">
+        <v>10</v>
+      </c>
+      <c r="AM16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E17" t="s">
+        <v>983</v>
+      </c>
+      <c r="F17" t="s">
+        <v>633</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.02</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0.1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0.8</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>999</v>
+      </c>
+      <c r="W17">
+        <v>-999</v>
+      </c>
+      <c r="X17">
+        <v>-0.1</v>
+      </c>
+      <c r="Y17">
+        <v>0.1</v>
+      </c>
+      <c r="Z17">
+        <v>999</v>
+      </c>
+      <c r="AA17">
+        <v>-999</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>0.1</v>
+      </c>
+      <c r="AD17">
+        <v>0.02</v>
+      </c>
+      <c r="AE17">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF17">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG17">
+        <v>0.05</v>
+      </c>
+      <c r="AH17">
+        <v>-0.05</v>
+      </c>
+      <c r="AI17">
+        <v>999</v>
+      </c>
+      <c r="AJ17">
+        <v>-999</v>
+      </c>
+      <c r="AK17">
+        <v>0.02</v>
+      </c>
+      <c r="AL17">
+        <v>10</v>
+      </c>
+      <c r="AM17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E18" t="s">
+        <v>984</v>
+      </c>
+      <c r="F18" t="s">
+        <v>634</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.02</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0.1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0.8</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>999</v>
+      </c>
+      <c r="W18">
+        <v>-999</v>
+      </c>
+      <c r="X18">
+        <v>-0.1</v>
+      </c>
+      <c r="Y18">
+        <v>0.1</v>
+      </c>
+      <c r="Z18">
+        <v>999</v>
+      </c>
+      <c r="AA18">
+        <v>-999</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>0.1</v>
+      </c>
+      <c r="AD18">
+        <v>0.02</v>
+      </c>
+      <c r="AE18">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF18">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG18">
+        <v>0.05</v>
+      </c>
+      <c r="AH18">
+        <v>-0.05</v>
+      </c>
+      <c r="AI18">
+        <v>999</v>
+      </c>
+      <c r="AJ18">
+        <v>-999</v>
+      </c>
+      <c r="AK18">
+        <v>0.02</v>
+      </c>
+      <c r="AL18">
+        <v>10</v>
+      </c>
+      <c r="AM18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E19" t="s">
+        <v>985</v>
+      </c>
+      <c r="F19" t="s">
+        <v>635</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.02</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0.1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0.8</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>999</v>
+      </c>
+      <c r="W19">
+        <v>-999</v>
+      </c>
+      <c r="X19">
+        <v>-0.1</v>
+      </c>
+      <c r="Y19">
+        <v>0.1</v>
+      </c>
+      <c r="Z19">
+        <v>999</v>
+      </c>
+      <c r="AA19">
+        <v>-999</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>0.1</v>
+      </c>
+      <c r="AD19">
+        <v>0.02</v>
+      </c>
+      <c r="AE19">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF19">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG19">
+        <v>0.05</v>
+      </c>
+      <c r="AH19">
+        <v>-0.05</v>
+      </c>
+      <c r="AI19">
+        <v>999</v>
+      </c>
+      <c r="AJ19">
+        <v>-999</v>
+      </c>
+      <c r="AK19">
+        <v>0.02</v>
+      </c>
+      <c r="AL19">
+        <v>10</v>
+      </c>
+      <c r="AM19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E20" t="s">
+        <v>986</v>
+      </c>
+      <c r="F20" t="s">
+        <v>636</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0.02</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0.1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0.8</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>999</v>
+      </c>
+      <c r="W20">
+        <v>-999</v>
+      </c>
+      <c r="X20">
+        <v>-0.1</v>
+      </c>
+      <c r="Y20">
+        <v>0.1</v>
+      </c>
+      <c r="Z20">
+        <v>999</v>
+      </c>
+      <c r="AA20">
+        <v>-999</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>0.1</v>
+      </c>
+      <c r="AD20">
+        <v>0.02</v>
+      </c>
+      <c r="AE20">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF20">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG20">
+        <v>0.05</v>
+      </c>
+      <c r="AH20">
+        <v>-0.05</v>
+      </c>
+      <c r="AI20">
+        <v>999</v>
+      </c>
+      <c r="AJ20">
+        <v>-999</v>
+      </c>
+      <c r="AK20">
+        <v>0.02</v>
+      </c>
+      <c r="AL20">
+        <v>10</v>
+      </c>
+      <c r="AM20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E21" t="s">
+        <v>987</v>
+      </c>
+      <c r="F21" t="s">
+        <v>638</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.02</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0.1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0.8</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>999</v>
+      </c>
+      <c r="W21">
+        <v>-999</v>
+      </c>
+      <c r="X21">
+        <v>-0.1</v>
+      </c>
+      <c r="Y21">
+        <v>0.1</v>
+      </c>
+      <c r="Z21">
+        <v>999</v>
+      </c>
+      <c r="AA21">
+        <v>-999</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>0.1</v>
+      </c>
+      <c r="AD21">
+        <v>0.02</v>
+      </c>
+      <c r="AE21">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF21">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG21">
+        <v>0.05</v>
+      </c>
+      <c r="AH21">
+        <v>-0.05</v>
+      </c>
+      <c r="AI21">
+        <v>999</v>
+      </c>
+      <c r="AJ21">
+        <v>-999</v>
+      </c>
+      <c r="AK21">
+        <v>0.02</v>
+      </c>
+      <c r="AL21">
+        <v>10</v>
+      </c>
+      <c r="AM21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E22" t="s">
+        <v>988</v>
+      </c>
+      <c r="F22" t="s">
+        <v>640</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0.02</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0.1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0.8</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>999</v>
+      </c>
+      <c r="W22">
+        <v>-999</v>
+      </c>
+      <c r="X22">
+        <v>-0.1</v>
+      </c>
+      <c r="Y22">
+        <v>0.1</v>
+      </c>
+      <c r="Z22">
+        <v>999</v>
+      </c>
+      <c r="AA22">
+        <v>-999</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>0.1</v>
+      </c>
+      <c r="AD22">
+        <v>0.02</v>
+      </c>
+      <c r="AE22">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF22">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG22">
+        <v>0.05</v>
+      </c>
+      <c r="AH22">
+        <v>-0.05</v>
+      </c>
+      <c r="AI22">
+        <v>999</v>
+      </c>
+      <c r="AJ22">
+        <v>-999</v>
+      </c>
+      <c r="AK22">
+        <v>0.02</v>
+      </c>
+      <c r="AL22">
+        <v>10</v>
+      </c>
+      <c r="AM22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E23" t="s">
+        <v>989</v>
+      </c>
+      <c r="F23" t="s">
+        <v>647</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.02</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0.1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0.8</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>999</v>
+      </c>
+      <c r="W23">
+        <v>-999</v>
+      </c>
+      <c r="X23">
+        <v>-0.1</v>
+      </c>
+      <c r="Y23">
+        <v>0.1</v>
+      </c>
+      <c r="Z23">
+        <v>999</v>
+      </c>
+      <c r="AA23">
+        <v>-999</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>0.1</v>
+      </c>
+      <c r="AD23">
+        <v>0.02</v>
+      </c>
+      <c r="AE23">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF23">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG23">
+        <v>0.05</v>
+      </c>
+      <c r="AH23">
+        <v>-0.05</v>
+      </c>
+      <c r="AI23">
+        <v>999</v>
+      </c>
+      <c r="AJ23">
+        <v>-999</v>
+      </c>
+      <c r="AK23">
+        <v>0.02</v>
+      </c>
+      <c r="AL23">
+        <v>10</v>
+      </c>
+      <c r="AM23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E24" t="s">
+        <v>990</v>
+      </c>
+      <c r="F24" t="s">
+        <v>648</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0.02</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0.1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0.8</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>999</v>
+      </c>
+      <c r="W24">
+        <v>-999</v>
+      </c>
+      <c r="X24">
+        <v>-0.1</v>
+      </c>
+      <c r="Y24">
+        <v>0.1</v>
+      </c>
+      <c r="Z24">
+        <v>999</v>
+      </c>
+      <c r="AA24">
+        <v>-999</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0.1</v>
+      </c>
+      <c r="AD24">
+        <v>0.02</v>
+      </c>
+      <c r="AE24">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF24">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG24">
+        <v>0.05</v>
+      </c>
+      <c r="AH24">
+        <v>-0.05</v>
+      </c>
+      <c r="AI24">
+        <v>999</v>
+      </c>
+      <c r="AJ24">
+        <v>-999</v>
+      </c>
+      <c r="AK24">
+        <v>0.02</v>
+      </c>
+      <c r="AL24">
+        <v>10</v>
+      </c>
+      <c r="AM24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E25" t="s">
+        <v>991</v>
+      </c>
+      <c r="F25" t="s">
+        <v>651</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.02</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0.1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0.8</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>999</v>
+      </c>
+      <c r="W25">
+        <v>-999</v>
+      </c>
+      <c r="X25">
+        <v>-0.1</v>
+      </c>
+      <c r="Y25">
+        <v>0.1</v>
+      </c>
+      <c r="Z25">
+        <v>999</v>
+      </c>
+      <c r="AA25">
+        <v>-999</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>0.1</v>
+      </c>
+      <c r="AD25">
+        <v>0.02</v>
+      </c>
+      <c r="AE25">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF25">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG25">
+        <v>0.05</v>
+      </c>
+      <c r="AH25">
+        <v>-0.05</v>
+      </c>
+      <c r="AI25">
+        <v>999</v>
+      </c>
+      <c r="AJ25">
+        <v>-999</v>
+      </c>
+      <c r="AK25">
+        <v>0.02</v>
+      </c>
+      <c r="AL25">
+        <v>10</v>
+      </c>
+      <c r="AM25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E26" t="s">
+        <v>992</v>
+      </c>
+      <c r="F26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0.02</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0.1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0.8</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>999</v>
+      </c>
+      <c r="W26">
+        <v>-999</v>
+      </c>
+      <c r="X26">
+        <v>-0.1</v>
+      </c>
+      <c r="Y26">
+        <v>0.1</v>
+      </c>
+      <c r="Z26">
+        <v>999</v>
+      </c>
+      <c r="AA26">
+        <v>-999</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>0.1</v>
+      </c>
+      <c r="AD26">
+        <v>0.02</v>
+      </c>
+      <c r="AE26">
+        <v>-0.0002833</v>
+      </c>
+      <c r="AF26">
+        <v>0.0002833</v>
+      </c>
+      <c r="AG26">
+        <v>0.05</v>
+      </c>
+      <c r="AH26">
+        <v>-0.05</v>
+      </c>
+      <c r="AI26">
+        <v>999</v>
+      </c>
+      <c r="AJ26">
+        <v>-999</v>
+      </c>
+      <c r="AK26">
+        <v>0.02</v>
+      </c>
+      <c r="AL26">
+        <v>10</v>
+      </c>
+      <c r="AM26">
         <v>10</v>
       </c>
     </row>
@@ -21025,7 +25026,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21048,16 +25049,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1019</v>
+        <v>1047</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>657</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1020</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -21065,13 +25066,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="E2" t="s">
         <v>968</v>
@@ -21091,13 +25092,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="E3" t="s">
         <v>969</v>
@@ -21117,13 +25118,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
       <c r="E4" t="s">
         <v>970</v>
@@ -21143,13 +25144,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="E5" t="s">
         <v>971</v>
@@ -21169,13 +25170,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1025</v>
+        <v>1053</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1025</v>
+        <v>1053</v>
       </c>
       <c r="E6" t="s">
         <v>972</v>
@@ -21195,13 +25196,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1026</v>
+        <v>1054</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1026</v>
+        <v>1054</v>
       </c>
       <c r="E7" t="s">
         <v>973</v>
@@ -21221,13 +25222,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1027</v>
+        <v>1055</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1027</v>
+        <v>1055</v>
       </c>
       <c r="E8" t="s">
         <v>974</v>
@@ -21247,13 +25248,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="E9" t="s">
         <v>975</v>
@@ -21273,13 +25274,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="E10" t="s">
         <v>976</v>
@@ -21299,13 +25300,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="E11" t="s">
         <v>977</v>
@@ -21325,13 +25326,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="E12" t="s">
         <v>978</v>
@@ -21343,6 +25344,370 @@
         <v>1</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E14" t="s">
+        <v>980</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E15" t="s">
+        <v>981</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E16" t="s">
+        <v>982</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E17" t="s">
+        <v>983</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E18" t="s">
+        <v>984</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E19" t="s">
+        <v>985</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E20" t="s">
+        <v>986</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E21" t="s">
+        <v>987</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E22" t="s">
+        <v>988</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E23" t="s">
+        <v>989</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E24" t="s">
+        <v>990</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E25" t="s">
+        <v>991</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E26" t="s">
+        <v>992</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
     </row>
@@ -27920,7 +32285,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -27976,7 +32341,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -28144,7 +32509,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -29096,7 +33461,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -29152,7 +33517,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -29208,7 +33573,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -29264,7 +33629,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -29376,7 +33741,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -29432,7 +33797,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -29656,7 +34021,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>48</v>
@@ -29712,7 +34077,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>49</v>
@@ -49088,7 +53453,7 @@
         <v>683</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>683</v>
@@ -49177,7 +53542,7 @@
         <v>684</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>684</v>
@@ -49266,7 +53631,7 @@
         <v>685</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>685</v>
@@ -49978,7 +54343,7 @@
         <v>693</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>693</v>
@@ -51313,7 +55678,7 @@
         <v>708</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>708</v>
@@ -51402,7 +55767,7 @@
         <v>709</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>709</v>
@@ -51491,7 +55856,7 @@
         <v>710</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>710</v>
@@ -51580,7 +55945,7 @@
         <v>711</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>711</v>
@@ -52381,7 +56746,7 @@
         <v>720</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>720</v>
@@ -52470,7 +56835,7 @@
         <v>721</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>721</v>
@@ -53194,7 +57559,7 @@
         <v>742</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>742</v>
@@ -53238,7 +57603,7 @@
         <v>743</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>743</v>
@@ -53282,7 +57647,7 @@
         <v>744</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>744</v>
@@ -53634,7 +57999,7 @@
         <v>752</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>752</v>
@@ -54294,7 +58659,7 @@
         <v>767</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>767</v>
@@ -54338,7 +58703,7 @@
         <v>768</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>768</v>
@@ -54382,7 +58747,7 @@
         <v>769</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>769</v>
@@ -54426,7 +58791,7 @@
         <v>770</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>770</v>
@@ -54470,7 +58835,7 @@
         <v>771</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>771</v>
@@ -54558,7 +58923,7 @@
         <v>773</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>773</v>
@@ -54822,7 +59187,7 @@
         <v>779</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>779</v>
@@ -54866,7 +59231,7 @@
         <v>780</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>780</v>
@@ -54954,7 +59319,7 @@
         <v>782</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>782</v>
@@ -54998,7 +59363,7 @@
         <v>783</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>783</v>

--- a/ACTIVSg200/3.IL200_dyn_50wt.xlsx
+++ b/ACTIVSg200/3.IL200_dyn_50wt.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="1032">
   <si>
     <t>idx</t>
   </si>
@@ -2470,6 +2470,33 @@
     <t>IEEEG1_11</t>
   </si>
   <si>
+    <t>IEEEG1_12</t>
+  </si>
+  <si>
+    <t>IEEEG1_13</t>
+  </si>
+  <si>
+    <t>IEEEG1_14</t>
+  </si>
+  <si>
+    <t>IEEEG1_15</t>
+  </si>
+  <si>
+    <t>IEEEG1_16</t>
+  </si>
+  <si>
+    <t>IEEEG1_17</t>
+  </si>
+  <si>
+    <t>IEEEG1_18</t>
+  </si>
+  <si>
+    <t>IEEEG1_19</t>
+  </si>
+  <si>
+    <t>IEEEG1_20</t>
+  </si>
+  <si>
     <t>KT</t>
   </si>
   <si>
@@ -2512,6 +2539,21 @@
     <t>GAST_12</t>
   </si>
   <si>
+    <t>GAST_13</t>
+  </si>
+  <si>
+    <t>GAST_14</t>
+  </si>
+  <si>
+    <t>GAST_15</t>
+  </si>
+  <si>
+    <t>GAST_16</t>
+  </si>
+  <si>
+    <t>GAST_17</t>
+  </si>
+  <si>
     <t>TATB</t>
   </si>
   <si>
@@ -2752,48 +2794,6 @@
     <t>REGCA_11</t>
   </si>
   <si>
-    <t>REGCA_12</t>
-  </si>
-  <si>
-    <t>REGCA_13</t>
-  </si>
-  <si>
-    <t>REGCA_14</t>
-  </si>
-  <si>
-    <t>REGCA_15</t>
-  </si>
-  <si>
-    <t>REGCA_16</t>
-  </si>
-  <si>
-    <t>REGCA_17</t>
-  </si>
-  <si>
-    <t>REGCA_18</t>
-  </si>
-  <si>
-    <t>REGCA_19</t>
-  </si>
-  <si>
-    <t>REGCA_20</t>
-  </si>
-  <si>
-    <t>REGCA_21</t>
-  </si>
-  <si>
-    <t>REGCA_22</t>
-  </si>
-  <si>
-    <t>REGCA_23</t>
-  </si>
-  <si>
-    <t>REGCA_24</t>
-  </si>
-  <si>
-    <t>REGCA_25</t>
-  </si>
-  <si>
     <t>reg</t>
   </si>
   <si>
@@ -2968,48 +2968,6 @@
     <t>REECA1_11</t>
   </si>
   <si>
-    <t>REECA1_12</t>
-  </si>
-  <si>
-    <t>REECA1_13</t>
-  </si>
-  <si>
-    <t>REECA1_14</t>
-  </si>
-  <si>
-    <t>REECA1_15</t>
-  </si>
-  <si>
-    <t>REECA1_16</t>
-  </si>
-  <si>
-    <t>REECA1_17</t>
-  </si>
-  <si>
-    <t>REECA1_18</t>
-  </si>
-  <si>
-    <t>REECA1_19</t>
-  </si>
-  <si>
-    <t>REECA1_20</t>
-  </si>
-  <si>
-    <t>REECA1_21</t>
-  </si>
-  <si>
-    <t>REECA1_22</t>
-  </si>
-  <si>
-    <t>REECA1_23</t>
-  </si>
-  <si>
-    <t>REECA1_24</t>
-  </si>
-  <si>
-    <t>REECA1_25</t>
-  </si>
-  <si>
     <t>ree</t>
   </si>
   <si>
@@ -3130,48 +3088,6 @@
     <t>REPCA1_11</t>
   </si>
   <si>
-    <t>REPCA1_12</t>
-  </si>
-  <si>
-    <t>REPCA1_13</t>
-  </si>
-  <si>
-    <t>REPCA1_14</t>
-  </si>
-  <si>
-    <t>REPCA1_15</t>
-  </si>
-  <si>
-    <t>REPCA1_16</t>
-  </si>
-  <si>
-    <t>REPCA1_17</t>
-  </si>
-  <si>
-    <t>REPCA1_18</t>
-  </si>
-  <si>
-    <t>REPCA1_19</t>
-  </si>
-  <si>
-    <t>REPCA1_20</t>
-  </si>
-  <si>
-    <t>REPCA1_21</t>
-  </si>
-  <si>
-    <t>REPCA1_22</t>
-  </si>
-  <si>
-    <t>REPCA1_23</t>
-  </si>
-  <si>
-    <t>REPCA1_24</t>
-  </si>
-  <si>
-    <t>REPCA1_25</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -3209,48 +3125,6 @@
   </si>
   <si>
     <t>WTDS_11</t>
-  </si>
-  <si>
-    <t>WTDS_12</t>
-  </si>
-  <si>
-    <t>WTDS_13</t>
-  </si>
-  <si>
-    <t>WTDS_14</t>
-  </si>
-  <si>
-    <t>WTDS_15</t>
-  </si>
-  <si>
-    <t>WTDS_16</t>
-  </si>
-  <si>
-    <t>WTDS_17</t>
-  </si>
-  <si>
-    <t>WTDS_18</t>
-  </si>
-  <si>
-    <t>WTDS_19</t>
-  </si>
-  <si>
-    <t>WTDS_20</t>
-  </si>
-  <si>
-    <t>WTDS_21</t>
-  </si>
-  <si>
-    <t>WTDS_22</t>
-  </si>
-  <si>
-    <t>WTDS_23</t>
-  </si>
-  <si>
-    <t>WTDS_24</t>
-  </si>
-  <si>
-    <t>WTDS_25</t>
   </si>
 </sst>
 </file>
@@ -12468,7 +12342,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13075,7 +12949,7 @@
         <v>808</v>
       </c>
       <c r="E8" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -13087,10 +12961,10 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>0.41585</v>
+        <v>0.293992</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
         <v>0.1</v>
@@ -13117,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>9.00009</v>
+        <v>7</v>
       </c>
       <c r="U8">
         <v>0.5</v>
@@ -13158,7 +13032,7 @@
         <v>809</v>
       </c>
       <c r="E9" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13170,7 +13044,7 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>0.385075</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -13241,7 +13115,7 @@
         <v>810</v>
       </c>
       <c r="E10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13253,7 +13127,7 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>0.205696</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -13324,7 +13198,7 @@
         <v>811</v>
       </c>
       <c r="E11" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13336,7 +13210,7 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>0.41585</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -13407,7 +13281,7 @@
         <v>812</v>
       </c>
       <c r="E12" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -13422,7 +13296,7 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.719882</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>0.1</v>
@@ -13449,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2.39961</v>
+        <v>9.00009</v>
       </c>
       <c r="U12">
         <v>0.5</v>
@@ -13473,6 +13347,753 @@
         <v>0</v>
       </c>
       <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>813</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>813</v>
+      </c>
+      <c r="E13" t="s">
+        <v>688</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>0.1</v>
+      </c>
+      <c r="N13">
+        <v>-0.1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.4</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>9.00009</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.05</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>814</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>814</v>
+      </c>
+      <c r="E14" t="s">
+        <v>696</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>0.1</v>
+      </c>
+      <c r="M14">
+        <v>0.1</v>
+      </c>
+      <c r="N14">
+        <v>-0.1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.4</v>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>9.00009</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.5</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0.05</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E15" t="s">
+        <v>707</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>0.719882</v>
+      </c>
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+      <c r="M15">
+        <v>0.1</v>
+      </c>
+      <c r="N15">
+        <v>-0.1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4</v>
+      </c>
+      <c r="R15">
+        <v>0.5</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>2.39961</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0.5</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0.05</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>816</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>816</v>
+      </c>
+      <c r="E16" t="s">
+        <v>708</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>0.1</v>
+      </c>
+      <c r="M16">
+        <v>0.1</v>
+      </c>
+      <c r="N16">
+        <v>-0.1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.4</v>
+      </c>
+      <c r="R16">
+        <v>0.5</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>9.00009</v>
+      </c>
+      <c r="U16">
+        <v>0.5</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.5</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0.05</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>817</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>817</v>
+      </c>
+      <c r="E17" t="s">
+        <v>709</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>2.1</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+      <c r="M17">
+        <v>0.1</v>
+      </c>
+      <c r="N17">
+        <v>-0.1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.4</v>
+      </c>
+      <c r="R17">
+        <v>0.5</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>6.30006</v>
+      </c>
+      <c r="U17">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0.5</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0.05</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>818</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>818</v>
+      </c>
+      <c r="E18" t="s">
+        <v>710</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
+        <v>2.1</v>
+      </c>
+      <c r="L18">
+        <v>0.1</v>
+      </c>
+      <c r="M18">
+        <v>0.1</v>
+      </c>
+      <c r="N18">
+        <v>-0.1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.4</v>
+      </c>
+      <c r="R18">
+        <v>0.5</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>0.5</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0.5</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0.05</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>819</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>819</v>
+      </c>
+      <c r="E19" t="s">
+        <v>711</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+      <c r="K19">
+        <v>2.70961</v>
+      </c>
+      <c r="L19">
+        <v>0.1</v>
+      </c>
+      <c r="M19">
+        <v>0.1</v>
+      </c>
+      <c r="N19">
+        <v>-0.1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.4</v>
+      </c>
+      <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>8.128909999999999</v>
+      </c>
+      <c r="U19">
+        <v>0.5</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.5</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0.05</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>820</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>820</v>
+      </c>
+      <c r="E20" t="s">
+        <v>720</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>0.1</v>
+      </c>
+      <c r="M20">
+        <v>0.1</v>
+      </c>
+      <c r="N20">
+        <v>-0.1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.4</v>
+      </c>
+      <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>9.00009</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.5</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0.05</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>821</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>821</v>
+      </c>
+      <c r="E21" t="s">
+        <v>721</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>0.1</v>
+      </c>
+      <c r="M21">
+        <v>0.1</v>
+      </c>
+      <c r="N21">
+        <v>-0.1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.4</v>
+      </c>
+      <c r="R21">
+        <v>0.5</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0.05</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
         <v>0</v>
       </c>
     </row>
@@ -13483,7 +14104,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13524,10 +14145,10 @@
         <v>730</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>731</v>
@@ -13547,13 +14168,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="E2" t="s">
         <v>689</v>
@@ -13597,13 +14218,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="E3" t="s">
         <v>690</v>
@@ -13647,13 +14268,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="E4" t="s">
         <v>691</v>
@@ -13697,13 +14318,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="E5" t="s">
         <v>692</v>
@@ -13747,16 +14368,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="E6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13783,10 +14404,10 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>1.11874</v>
       </c>
       <c r="O6">
-        <v>6.30006</v>
+        <v>3.35624</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -13797,16 +14418,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="E7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13815,7 +14436,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -13847,16 +14468,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="E8" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -13865,7 +14486,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -13883,10 +14504,10 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>9.00009</v>
+        <v>6.30006</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -13897,16 +14518,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="E9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13933,10 +14554,10 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>9.00009</v>
+        <v>6.30006</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -13947,16 +14568,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="E10" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13983,10 +14604,10 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>6.30006</v>
+        <v>9.00009</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -13997,16 +14618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="E11" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14015,7 +14636,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -14047,16 +14668,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="E12" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -14065,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -14083,10 +14704,10 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>6.30006</v>
+        <v>9.00009</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -14097,16 +14718,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="E13" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -14133,12 +14754,262 @@
         <v>0.1</v>
       </c>
       <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>6.30006</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>836</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>836</v>
+      </c>
+      <c r="E14" t="s">
+        <v>717</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.04</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1</v>
+      </c>
+      <c r="N14">
+        <v>2.1</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>837</v>
+      </c>
+      <c r="E15" t="s">
+        <v>718</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1</v>
+      </c>
+      <c r="N15">
+        <v>2.1</v>
+      </c>
+      <c r="O15">
+        <v>6.30006</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>838</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>838</v>
+      </c>
+      <c r="E16" t="s">
+        <v>719</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0.05</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1</v>
+      </c>
+      <c r="N16">
         <v>1.51816</v>
       </c>
-      <c r="O13">
+      <c r="O16">
         <v>5.06054</v>
       </c>
-      <c r="P13">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>839</v>
+      </c>
+      <c r="E17" t="s">
+        <v>723</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1</v>
+      </c>
+      <c r="N17">
+        <v>2.1</v>
+      </c>
+      <c r="O17">
+        <v>6.30006</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>840</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>840</v>
+      </c>
+      <c r="E18" t="s">
+        <v>724</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0.04</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1</v>
+      </c>
+      <c r="N18">
+        <v>0.918892</v>
+      </c>
+      <c r="O18">
+        <v>2.7567</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
     </row>
@@ -14175,22 +15046,22 @@
         <v>725</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>785</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -14198,13 +15069,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="E2" t="s">
         <v>676</v>
@@ -14233,13 +15104,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="E3" t="s">
         <v>677</v>
@@ -14268,13 +15139,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="E4" t="s">
         <v>678</v>
@@ -14303,13 +15174,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E5" t="s">
         <v>679</v>
@@ -14338,13 +15209,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="E6" t="s">
         <v>680</v>
@@ -14373,13 +15244,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="E7" t="s">
         <v>681</v>
@@ -14408,13 +15279,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="E8" t="s">
         <v>682</v>
@@ -14443,13 +15314,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="E9" t="s">
         <v>683</v>
@@ -14478,13 +15349,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="E10" t="s">
         <v>684</v>
@@ -14513,13 +15384,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="E11" t="s">
         <v>685</v>
@@ -14548,13 +15419,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="E12" t="s">
         <v>686</v>
@@ -14583,13 +15454,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="E13" t="s">
         <v>687</v>
@@ -14618,13 +15489,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="E14" t="s">
         <v>688</v>
@@ -14653,13 +15524,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="E15" t="s">
         <v>689</v>
@@ -14688,13 +15559,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E16" t="s">
         <v>690</v>
@@ -14723,13 +15594,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="E17" t="s">
         <v>691</v>
@@ -14758,13 +15629,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="E18" t="s">
         <v>692</v>
@@ -14793,13 +15664,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="E19" t="s">
         <v>693</v>
@@ -14828,13 +15699,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="E20" t="s">
         <v>694</v>
@@ -14863,13 +15734,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="E21" t="s">
         <v>695</v>
@@ -14898,13 +15769,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="E22" t="s">
         <v>696</v>
@@ -14933,13 +15804,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="E23" t="s">
         <v>697</v>
@@ -14968,13 +15839,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="E24" t="s">
         <v>698</v>
@@ -15003,13 +15874,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="E25" t="s">
         <v>699</v>
@@ -15038,13 +15909,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="E26" t="s">
         <v>700</v>
@@ -15073,13 +15944,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="E27" t="s">
         <v>701</v>
@@ -15108,13 +15979,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="E28" t="s">
         <v>702</v>
@@ -15143,13 +16014,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="E29" t="s">
         <v>703</v>
@@ -15178,13 +16049,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="E30" t="s">
         <v>704</v>
@@ -15213,13 +16084,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="E31" t="s">
         <v>705</v>
@@ -15248,13 +16119,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="E32" t="s">
         <v>706</v>
@@ -15283,13 +16154,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
       <c r="E33" t="s">
         <v>707</v>
@@ -15318,13 +16189,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="E34" t="s">
         <v>708</v>
@@ -15353,13 +16224,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
       <c r="E35" t="s">
         <v>709</v>
@@ -15388,13 +16259,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="E36" t="s">
         <v>710</v>
@@ -15423,13 +16294,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="E37" t="s">
         <v>711</v>
@@ -15458,13 +16329,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="E38" t="s">
         <v>712</v>
@@ -15493,13 +16364,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="E39" t="s">
         <v>713</v>
@@ -15528,13 +16399,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="E40" t="s">
         <v>714</v>
@@ -15563,13 +16434,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="E41" t="s">
         <v>715</v>
@@ -15598,13 +16469,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
       <c r="E42" t="s">
         <v>716</v>
@@ -15633,13 +16504,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="E43" t="s">
         <v>717</v>
@@ -15668,13 +16539,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="E44" t="s">
         <v>718</v>
@@ -15703,13 +16574,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="E45" t="s">
         <v>719</v>
@@ -15738,13 +16609,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="E46" t="s">
         <v>720</v>
@@ -15773,13 +16644,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="E47" t="s">
         <v>721</v>
@@ -15808,13 +16679,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="E48" t="s">
         <v>722</v>
@@ -15843,13 +16714,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="E49" t="s">
         <v>723</v>
@@ -15878,13 +16749,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="E50" t="s">
         <v>724</v>
@@ -15915,7 +16786,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15947,49 +16818,49 @@
         <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>665</v>
@@ -16003,13 +16874,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="E2">
         <v>65</v>
@@ -16033,7 +16904,7 @@
         <v>0.5</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -16077,22 +16948,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="E3">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>33.5</v>
+        <v>118.8</v>
       </c>
       <c r="H3">
         <v>0.1</v>
@@ -16107,7 +16978,7 @@
         <v>0.5</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -16151,22 +17022,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="E4">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>33.5</v>
+        <v>237.6</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -16181,7 +17052,7 @@
         <v>0.5</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -16225,22 +17096,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>33.5</v>
+        <v>2.04</v>
       </c>
       <c r="H5">
         <v>0.1</v>
@@ -16255,7 +17126,7 @@
         <v>0.5</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -16299,22 +17170,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>3.84</v>
+        <v>180</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -16329,7 +17200,7 @@
         <v>0.5</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -16373,22 +17244,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="E7">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>118.8</v>
+        <v>156.06</v>
       </c>
       <c r="H7">
         <v>0.1</v>
@@ -16403,7 +17274,7 @@
         <v>0.5</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -16447,22 +17318,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="E8">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>237.6</v>
+        <v>156.06</v>
       </c>
       <c r="H8">
         <v>0.1</v>
@@ -16477,7 +17348,7 @@
         <v>0.5</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -16521,22 +17392,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="E9">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>2.04</v>
+        <v>156.06</v>
       </c>
       <c r="H9">
         <v>0.1</v>
@@ -16551,7 +17422,7 @@
         <v>0.5</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -16595,22 +17466,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="E10">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>180</v>
+        <v>535.6799999999999</v>
       </c>
       <c r="H10">
         <v>0.1</v>
@@ -16625,7 +17496,7 @@
         <v>0.5</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -16669,22 +17540,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="E11">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>156.06</v>
+        <v>535.6799999999999</v>
       </c>
       <c r="H11">
         <v>0.1</v>
@@ -16699,7 +17570,7 @@
         <v>0.5</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -16743,22 +17614,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="E12">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="F12">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>156.06</v>
+        <v>120.6</v>
       </c>
       <c r="H12">
         <v>0.1</v>
@@ -16773,7 +17644,7 @@
         <v>0.5</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -16809,1042 +17680,6 @@
         <v>1</v>
       </c>
       <c r="X12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>907</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>907</v>
-      </c>
-      <c r="E13">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>28</v>
-      </c>
-      <c r="G13">
-        <v>156.06</v>
-      </c>
-      <c r="H13">
-        <v>0.1</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1.2</v>
-      </c>
-      <c r="O13">
-        <v>0.8</v>
-      </c>
-      <c r="P13">
-        <v>0.4</v>
-      </c>
-      <c r="Q13">
-        <v>-1.5</v>
-      </c>
-      <c r="R13">
-        <v>0.1</v>
-      </c>
-      <c r="S13">
-        <v>0.7</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>-1</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>908</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>908</v>
-      </c>
-      <c r="E14">
-        <v>135</v>
-      </c>
-      <c r="F14">
-        <v>29</v>
-      </c>
-      <c r="G14">
-        <v>535.6799999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.1</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0.5</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1.2</v>
-      </c>
-      <c r="O14">
-        <v>0.8</v>
-      </c>
-      <c r="P14">
-        <v>0.4</v>
-      </c>
-      <c r="Q14">
-        <v>-1.5</v>
-      </c>
-      <c r="R14">
-        <v>0.1</v>
-      </c>
-      <c r="S14">
-        <v>0.7</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>-1</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>909</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>909</v>
-      </c>
-      <c r="E15">
-        <v>136</v>
-      </c>
-      <c r="F15">
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <v>535.6799999999999</v>
-      </c>
-      <c r="H15">
-        <v>0.1</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0.5</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1.2</v>
-      </c>
-      <c r="O15">
-        <v>0.8</v>
-      </c>
-      <c r="P15">
-        <v>0.4</v>
-      </c>
-      <c r="Q15">
-        <v>-1.5</v>
-      </c>
-      <c r="R15">
-        <v>0.1</v>
-      </c>
-      <c r="S15">
-        <v>0.7</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>-1</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>910</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>910</v>
-      </c>
-      <c r="E16">
-        <v>147</v>
-      </c>
-      <c r="F16">
-        <v>31</v>
-      </c>
-      <c r="G16">
-        <v>120.6</v>
-      </c>
-      <c r="H16">
-        <v>0.1</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0.5</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1.2</v>
-      </c>
-      <c r="O16">
-        <v>0.8</v>
-      </c>
-      <c r="P16">
-        <v>0.4</v>
-      </c>
-      <c r="Q16">
-        <v>-1.5</v>
-      </c>
-      <c r="R16">
-        <v>0.1</v>
-      </c>
-      <c r="S16">
-        <v>0.7</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>-1</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>911</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>911</v>
-      </c>
-      <c r="E17">
-        <v>152</v>
-      </c>
-      <c r="F17">
-        <v>33</v>
-      </c>
-      <c r="G17">
-        <v>92.67</v>
-      </c>
-      <c r="H17">
-        <v>0.1</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0.5</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1.2</v>
-      </c>
-      <c r="O17">
-        <v>0.8</v>
-      </c>
-      <c r="P17">
-        <v>0.4</v>
-      </c>
-      <c r="Q17">
-        <v>-1.5</v>
-      </c>
-      <c r="R17">
-        <v>0.1</v>
-      </c>
-      <c r="S17">
-        <v>0.7</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>-1</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>912</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>912</v>
-      </c>
-      <c r="E18">
-        <v>153</v>
-      </c>
-      <c r="F18">
-        <v>34</v>
-      </c>
-      <c r="G18">
-        <v>92.67</v>
-      </c>
-      <c r="H18">
-        <v>0.1</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0.5</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1.2</v>
-      </c>
-      <c r="O18">
-        <v>0.8</v>
-      </c>
-      <c r="P18">
-        <v>0.4</v>
-      </c>
-      <c r="Q18">
-        <v>-1.5</v>
-      </c>
-      <c r="R18">
-        <v>0.1</v>
-      </c>
-      <c r="S18">
-        <v>0.7</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>-1</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>913</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>913</v>
-      </c>
-      <c r="E19">
-        <v>154</v>
-      </c>
-      <c r="F19">
-        <v>35</v>
-      </c>
-      <c r="G19">
-        <v>92.67</v>
-      </c>
-      <c r="H19">
-        <v>0.1</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1.2</v>
-      </c>
-      <c r="O19">
-        <v>0.8</v>
-      </c>
-      <c r="P19">
-        <v>0.4</v>
-      </c>
-      <c r="Q19">
-        <v>-1.5</v>
-      </c>
-      <c r="R19">
-        <v>0.1</v>
-      </c>
-      <c r="S19">
-        <v>0.7</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>-1</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>914</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>914</v>
-      </c>
-      <c r="E20">
-        <v>155</v>
-      </c>
-      <c r="F20">
-        <v>36</v>
-      </c>
-      <c r="G20">
-        <v>92.67</v>
-      </c>
-      <c r="H20">
-        <v>0.1</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0.5</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1.2</v>
-      </c>
-      <c r="O20">
-        <v>0.8</v>
-      </c>
-      <c r="P20">
-        <v>0.4</v>
-      </c>
-      <c r="Q20">
-        <v>-1.5</v>
-      </c>
-      <c r="R20">
-        <v>0.1</v>
-      </c>
-      <c r="S20">
-        <v>0.7</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>-1</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>915</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>915</v>
-      </c>
-      <c r="E21">
-        <v>161</v>
-      </c>
-      <c r="F21">
-        <v>37</v>
-      </c>
-      <c r="G21">
-        <v>166.32</v>
-      </c>
-      <c r="H21">
-        <v>0.1</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0.5</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1.2</v>
-      </c>
-      <c r="O21">
-        <v>0.8</v>
-      </c>
-      <c r="P21">
-        <v>0.4</v>
-      </c>
-      <c r="Q21">
-        <v>-1.5</v>
-      </c>
-      <c r="R21">
-        <v>0.1</v>
-      </c>
-      <c r="S21">
-        <v>0.7</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>-1</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>916</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>916</v>
-      </c>
-      <c r="E22">
-        <v>165</v>
-      </c>
-      <c r="F22">
-        <v>39</v>
-      </c>
-      <c r="G22">
-        <v>31.2</v>
-      </c>
-      <c r="H22">
-        <v>0.1</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0.5</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1.2</v>
-      </c>
-      <c r="O22">
-        <v>0.8</v>
-      </c>
-      <c r="P22">
-        <v>0.4</v>
-      </c>
-      <c r="Q22">
-        <v>-1.5</v>
-      </c>
-      <c r="R22">
-        <v>0.1</v>
-      </c>
-      <c r="S22">
-        <v>0.7</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>-1</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>917</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>917</v>
-      </c>
-      <c r="E23">
-        <v>182</v>
-      </c>
-      <c r="F23">
-        <v>45</v>
-      </c>
-      <c r="G23">
-        <v>21</v>
-      </c>
-      <c r="H23">
-        <v>0.1</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0.5</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1.2</v>
-      </c>
-      <c r="O23">
-        <v>0.8</v>
-      </c>
-      <c r="P23">
-        <v>0.4</v>
-      </c>
-      <c r="Q23">
-        <v>-1.5</v>
-      </c>
-      <c r="R23">
-        <v>0.1</v>
-      </c>
-      <c r="S23">
-        <v>0.7</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>-1</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>918</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>918</v>
-      </c>
-      <c r="E24">
-        <v>183</v>
-      </c>
-      <c r="F24">
-        <v>46</v>
-      </c>
-      <c r="G24">
-        <v>31.92</v>
-      </c>
-      <c r="H24">
-        <v>0.1</v>
-      </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0.5</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1.2</v>
-      </c>
-      <c r="O24">
-        <v>0.8</v>
-      </c>
-      <c r="P24">
-        <v>0.4</v>
-      </c>
-      <c r="Q24">
-        <v>-1.5</v>
-      </c>
-      <c r="R24">
-        <v>0.1</v>
-      </c>
-      <c r="S24">
-        <v>0.7</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>-1</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>919</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>919</v>
-      </c>
-      <c r="E25">
-        <v>196</v>
-      </c>
-      <c r="F25">
-        <v>48</v>
-      </c>
-      <c r="G25">
-        <v>81</v>
-      </c>
-      <c r="H25">
-        <v>0.1</v>
-      </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0.5</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1.2</v>
-      </c>
-      <c r="O25">
-        <v>0.8</v>
-      </c>
-      <c r="P25">
-        <v>0.4</v>
-      </c>
-      <c r="Q25">
-        <v>-1.5</v>
-      </c>
-      <c r="R25">
-        <v>0.1</v>
-      </c>
-      <c r="S25">
-        <v>0.7</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>-1</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>920</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>920</v>
-      </c>
-      <c r="E26">
-        <v>197</v>
-      </c>
-      <c r="F26">
-        <v>49</v>
-      </c>
-      <c r="G26">
-        <v>81</v>
-      </c>
-      <c r="H26">
-        <v>0.1</v>
-      </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0.5</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1.2</v>
-      </c>
-      <c r="O26">
-        <v>0.8</v>
-      </c>
-      <c r="P26">
-        <v>0.4</v>
-      </c>
-      <c r="Q26">
-        <v>-1.5</v>
-      </c>
-      <c r="R26">
-        <v>0.1</v>
-      </c>
-      <c r="S26">
-        <v>0.7</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>-1</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
         <v>1</v>
       </c>
     </row>
@@ -17855,7 +17690,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18048,7 +17883,7 @@
         <v>968</v>
       </c>
       <c r="E2" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -18215,7 +18050,7 @@
         <v>969</v>
       </c>
       <c r="E3" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -18382,7 +18217,7 @@
         <v>970</v>
       </c>
       <c r="E4" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -18549,7 +18384,7 @@
         <v>971</v>
       </c>
       <c r="E5" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -18716,7 +18551,7 @@
         <v>972</v>
       </c>
       <c r="E6" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -18883,7 +18718,7 @@
         <v>973</v>
       </c>
       <c r="E7" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -19050,7 +18885,7 @@
         <v>974</v>
       </c>
       <c r="E8" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -19217,7 +19052,7 @@
         <v>975</v>
       </c>
       <c r="E9" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -19384,7 +19219,7 @@
         <v>976</v>
       </c>
       <c r="E10" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -19551,7 +19386,7 @@
         <v>977</v>
       </c>
       <c r="E11" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -19718,7 +19553,7 @@
         <v>978</v>
       </c>
       <c r="E12" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -19868,2344 +19703,6 @@
         <v>1</v>
       </c>
       <c r="BD12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:56">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>979</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>979</v>
-      </c>
-      <c r="E13" t="s">
-        <v>907</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0.8</v>
-      </c>
-      <c r="M13">
-        <v>1.2</v>
-      </c>
-      <c r="N13">
-        <v>0.02</v>
-      </c>
-      <c r="O13">
-        <v>-0.1</v>
-      </c>
-      <c r="P13">
-        <v>0.1</v>
-      </c>
-      <c r="Q13">
-        <v>20</v>
-      </c>
-      <c r="R13">
-        <v>999</v>
-      </c>
-      <c r="S13">
-        <v>-999</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>-2</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>0.02</v>
-      </c>
-      <c r="Y13">
-        <v>999</v>
-      </c>
-      <c r="Z13">
-        <v>-999</v>
-      </c>
-      <c r="AA13">
-        <v>999</v>
-      </c>
-      <c r="AB13">
-        <v>-999</v>
-      </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>1</v>
-      </c>
-      <c r="AH13">
-        <v>0.02</v>
-      </c>
-      <c r="AI13">
-        <v>999</v>
-      </c>
-      <c r="AJ13">
-        <v>-999</v>
-      </c>
-      <c r="AK13">
-        <v>999</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>10</v>
-      </c>
-      <c r="AN13">
-        <v>0.02</v>
-      </c>
-      <c r="AO13">
-        <v>0.2</v>
-      </c>
-      <c r="AP13">
-        <v>2</v>
-      </c>
-      <c r="AQ13">
-        <v>0.4</v>
-      </c>
-      <c r="AR13">
-        <v>4</v>
-      </c>
-      <c r="AS13">
-        <v>0.8</v>
-      </c>
-      <c r="AT13">
-        <v>8</v>
-      </c>
-      <c r="AU13">
-        <v>1</v>
-      </c>
-      <c r="AV13">
-        <v>10</v>
-      </c>
-      <c r="AW13">
-        <v>0.2</v>
-      </c>
-      <c r="AX13">
-        <v>2</v>
-      </c>
-      <c r="AY13">
-        <v>0.4</v>
-      </c>
-      <c r="AZ13">
-        <v>4</v>
-      </c>
-      <c r="BA13">
-        <v>0.8</v>
-      </c>
-      <c r="BB13">
-        <v>8</v>
-      </c>
-      <c r="BC13">
-        <v>1</v>
-      </c>
-      <c r="BD13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:56">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>980</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>980</v>
-      </c>
-      <c r="E14" t="s">
-        <v>908</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.8</v>
-      </c>
-      <c r="M14">
-        <v>1.2</v>
-      </c>
-      <c r="N14">
-        <v>0.02</v>
-      </c>
-      <c r="O14">
-        <v>-0.1</v>
-      </c>
-      <c r="P14">
-        <v>0.1</v>
-      </c>
-      <c r="Q14">
-        <v>20</v>
-      </c>
-      <c r="R14">
-        <v>999</v>
-      </c>
-      <c r="S14">
-        <v>-999</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>-2</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>0.02</v>
-      </c>
-      <c r="Y14">
-        <v>999</v>
-      </c>
-      <c r="Z14">
-        <v>-999</v>
-      </c>
-      <c r="AA14">
-        <v>999</v>
-      </c>
-      <c r="AB14">
-        <v>-999</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>1</v>
-      </c>
-      <c r="AH14">
-        <v>0.02</v>
-      </c>
-      <c r="AI14">
-        <v>999</v>
-      </c>
-      <c r="AJ14">
-        <v>-999</v>
-      </c>
-      <c r="AK14">
-        <v>999</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>10</v>
-      </c>
-      <c r="AN14">
-        <v>0.02</v>
-      </c>
-      <c r="AO14">
-        <v>0.2</v>
-      </c>
-      <c r="AP14">
-        <v>2</v>
-      </c>
-      <c r="AQ14">
-        <v>0.4</v>
-      </c>
-      <c r="AR14">
-        <v>4</v>
-      </c>
-      <c r="AS14">
-        <v>0.8</v>
-      </c>
-      <c r="AT14">
-        <v>8</v>
-      </c>
-      <c r="AU14">
-        <v>1</v>
-      </c>
-      <c r="AV14">
-        <v>10</v>
-      </c>
-      <c r="AW14">
-        <v>0.2</v>
-      </c>
-      <c r="AX14">
-        <v>2</v>
-      </c>
-      <c r="AY14">
-        <v>0.4</v>
-      </c>
-      <c r="AZ14">
-        <v>4</v>
-      </c>
-      <c r="BA14">
-        <v>0.8</v>
-      </c>
-      <c r="BB14">
-        <v>8</v>
-      </c>
-      <c r="BC14">
-        <v>1</v>
-      </c>
-      <c r="BD14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:56">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>981</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>981</v>
-      </c>
-      <c r="E15" t="s">
-        <v>909</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0.8</v>
-      </c>
-      <c r="M15">
-        <v>1.2</v>
-      </c>
-      <c r="N15">
-        <v>0.02</v>
-      </c>
-      <c r="O15">
-        <v>-0.1</v>
-      </c>
-      <c r="P15">
-        <v>0.1</v>
-      </c>
-      <c r="Q15">
-        <v>20</v>
-      </c>
-      <c r="R15">
-        <v>999</v>
-      </c>
-      <c r="S15">
-        <v>-999</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>-2</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>0.02</v>
-      </c>
-      <c r="Y15">
-        <v>999</v>
-      </c>
-      <c r="Z15">
-        <v>-999</v>
-      </c>
-      <c r="AA15">
-        <v>999</v>
-      </c>
-      <c r="AB15">
-        <v>-999</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>1</v>
-      </c>
-      <c r="AH15">
-        <v>0.02</v>
-      </c>
-      <c r="AI15">
-        <v>999</v>
-      </c>
-      <c r="AJ15">
-        <v>-999</v>
-      </c>
-      <c r="AK15">
-        <v>999</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>10</v>
-      </c>
-      <c r="AN15">
-        <v>0.02</v>
-      </c>
-      <c r="AO15">
-        <v>0.2</v>
-      </c>
-      <c r="AP15">
-        <v>2</v>
-      </c>
-      <c r="AQ15">
-        <v>0.4</v>
-      </c>
-      <c r="AR15">
-        <v>4</v>
-      </c>
-      <c r="AS15">
-        <v>0.8</v>
-      </c>
-      <c r="AT15">
-        <v>8</v>
-      </c>
-      <c r="AU15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>10</v>
-      </c>
-      <c r="AW15">
-        <v>0.2</v>
-      </c>
-      <c r="AX15">
-        <v>2</v>
-      </c>
-      <c r="AY15">
-        <v>0.4</v>
-      </c>
-      <c r="AZ15">
-        <v>4</v>
-      </c>
-      <c r="BA15">
-        <v>0.8</v>
-      </c>
-      <c r="BB15">
-        <v>8</v>
-      </c>
-      <c r="BC15">
-        <v>1</v>
-      </c>
-      <c r="BD15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:56">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>982</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>982</v>
-      </c>
-      <c r="E16" t="s">
-        <v>910</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0.8</v>
-      </c>
-      <c r="M16">
-        <v>1.2</v>
-      </c>
-      <c r="N16">
-        <v>0.02</v>
-      </c>
-      <c r="O16">
-        <v>-0.1</v>
-      </c>
-      <c r="P16">
-        <v>0.1</v>
-      </c>
-      <c r="Q16">
-        <v>20</v>
-      </c>
-      <c r="R16">
-        <v>999</v>
-      </c>
-      <c r="S16">
-        <v>-999</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>-2</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>0.02</v>
-      </c>
-      <c r="Y16">
-        <v>999</v>
-      </c>
-      <c r="Z16">
-        <v>-999</v>
-      </c>
-      <c r="AA16">
-        <v>999</v>
-      </c>
-      <c r="AB16">
-        <v>-999</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <v>0.02</v>
-      </c>
-      <c r="AI16">
-        <v>999</v>
-      </c>
-      <c r="AJ16">
-        <v>-999</v>
-      </c>
-      <c r="AK16">
-        <v>999</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>10</v>
-      </c>
-      <c r="AN16">
-        <v>0.02</v>
-      </c>
-      <c r="AO16">
-        <v>0.2</v>
-      </c>
-      <c r="AP16">
-        <v>2</v>
-      </c>
-      <c r="AQ16">
-        <v>0.4</v>
-      </c>
-      <c r="AR16">
-        <v>4</v>
-      </c>
-      <c r="AS16">
-        <v>0.8</v>
-      </c>
-      <c r="AT16">
-        <v>8</v>
-      </c>
-      <c r="AU16">
-        <v>1</v>
-      </c>
-      <c r="AV16">
-        <v>10</v>
-      </c>
-      <c r="AW16">
-        <v>0.2</v>
-      </c>
-      <c r="AX16">
-        <v>2</v>
-      </c>
-      <c r="AY16">
-        <v>0.4</v>
-      </c>
-      <c r="AZ16">
-        <v>4</v>
-      </c>
-      <c r="BA16">
-        <v>0.8</v>
-      </c>
-      <c r="BB16">
-        <v>8</v>
-      </c>
-      <c r="BC16">
-        <v>1</v>
-      </c>
-      <c r="BD16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:56">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>983</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>983</v>
-      </c>
-      <c r="E17" t="s">
-        <v>911</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0.8</v>
-      </c>
-      <c r="M17">
-        <v>1.2</v>
-      </c>
-      <c r="N17">
-        <v>0.02</v>
-      </c>
-      <c r="O17">
-        <v>-0.1</v>
-      </c>
-      <c r="P17">
-        <v>0.1</v>
-      </c>
-      <c r="Q17">
-        <v>20</v>
-      </c>
-      <c r="R17">
-        <v>999</v>
-      </c>
-      <c r="S17">
-        <v>-999</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>-2</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0.02</v>
-      </c>
-      <c r="Y17">
-        <v>999</v>
-      </c>
-      <c r="Z17">
-        <v>-999</v>
-      </c>
-      <c r="AA17">
-        <v>999</v>
-      </c>
-      <c r="AB17">
-        <v>-999</v>
-      </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
-      </c>
-      <c r="AH17">
-        <v>0.02</v>
-      </c>
-      <c r="AI17">
-        <v>999</v>
-      </c>
-      <c r="AJ17">
-        <v>-999</v>
-      </c>
-      <c r="AK17">
-        <v>999</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>10</v>
-      </c>
-      <c r="AN17">
-        <v>0.02</v>
-      </c>
-      <c r="AO17">
-        <v>0.2</v>
-      </c>
-      <c r="AP17">
-        <v>2</v>
-      </c>
-      <c r="AQ17">
-        <v>0.4</v>
-      </c>
-      <c r="AR17">
-        <v>4</v>
-      </c>
-      <c r="AS17">
-        <v>0.8</v>
-      </c>
-      <c r="AT17">
-        <v>8</v>
-      </c>
-      <c r="AU17">
-        <v>1</v>
-      </c>
-      <c r="AV17">
-        <v>10</v>
-      </c>
-      <c r="AW17">
-        <v>0.2</v>
-      </c>
-      <c r="AX17">
-        <v>2</v>
-      </c>
-      <c r="AY17">
-        <v>0.4</v>
-      </c>
-      <c r="AZ17">
-        <v>4</v>
-      </c>
-      <c r="BA17">
-        <v>0.8</v>
-      </c>
-      <c r="BB17">
-        <v>8</v>
-      </c>
-      <c r="BC17">
-        <v>1</v>
-      </c>
-      <c r="BD17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:56">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>984</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>984</v>
-      </c>
-      <c r="E18" t="s">
-        <v>912</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.8</v>
-      </c>
-      <c r="M18">
-        <v>1.2</v>
-      </c>
-      <c r="N18">
-        <v>0.02</v>
-      </c>
-      <c r="O18">
-        <v>-0.1</v>
-      </c>
-      <c r="P18">
-        <v>0.1</v>
-      </c>
-      <c r="Q18">
-        <v>20</v>
-      </c>
-      <c r="R18">
-        <v>999</v>
-      </c>
-      <c r="S18">
-        <v>-999</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>-2</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0.02</v>
-      </c>
-      <c r="Y18">
-        <v>999</v>
-      </c>
-      <c r="Z18">
-        <v>-999</v>
-      </c>
-      <c r="AA18">
-        <v>999</v>
-      </c>
-      <c r="AB18">
-        <v>-999</v>
-      </c>
-      <c r="AC18">
-        <v>1</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>0.02</v>
-      </c>
-      <c r="AI18">
-        <v>999</v>
-      </c>
-      <c r="AJ18">
-        <v>-999</v>
-      </c>
-      <c r="AK18">
-        <v>999</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>10</v>
-      </c>
-      <c r="AN18">
-        <v>0.02</v>
-      </c>
-      <c r="AO18">
-        <v>0.2</v>
-      </c>
-      <c r="AP18">
-        <v>2</v>
-      </c>
-      <c r="AQ18">
-        <v>0.4</v>
-      </c>
-      <c r="AR18">
-        <v>4</v>
-      </c>
-      <c r="AS18">
-        <v>0.8</v>
-      </c>
-      <c r="AT18">
-        <v>8</v>
-      </c>
-      <c r="AU18">
-        <v>1</v>
-      </c>
-      <c r="AV18">
-        <v>10</v>
-      </c>
-      <c r="AW18">
-        <v>0.2</v>
-      </c>
-      <c r="AX18">
-        <v>2</v>
-      </c>
-      <c r="AY18">
-        <v>0.4</v>
-      </c>
-      <c r="AZ18">
-        <v>4</v>
-      </c>
-      <c r="BA18">
-        <v>0.8</v>
-      </c>
-      <c r="BB18">
-        <v>8</v>
-      </c>
-      <c r="BC18">
-        <v>1</v>
-      </c>
-      <c r="BD18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>985</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>985</v>
-      </c>
-      <c r="E19" t="s">
-        <v>913</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0.8</v>
-      </c>
-      <c r="M19">
-        <v>1.2</v>
-      </c>
-      <c r="N19">
-        <v>0.02</v>
-      </c>
-      <c r="O19">
-        <v>-0.1</v>
-      </c>
-      <c r="P19">
-        <v>0.1</v>
-      </c>
-      <c r="Q19">
-        <v>20</v>
-      </c>
-      <c r="R19">
-        <v>999</v>
-      </c>
-      <c r="S19">
-        <v>-999</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>-2</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>0.02</v>
-      </c>
-      <c r="Y19">
-        <v>999</v>
-      </c>
-      <c r="Z19">
-        <v>-999</v>
-      </c>
-      <c r="AA19">
-        <v>999</v>
-      </c>
-      <c r="AB19">
-        <v>-999</v>
-      </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>1</v>
-      </c>
-      <c r="AH19">
-        <v>0.02</v>
-      </c>
-      <c r="AI19">
-        <v>999</v>
-      </c>
-      <c r="AJ19">
-        <v>-999</v>
-      </c>
-      <c r="AK19">
-        <v>999</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>10</v>
-      </c>
-      <c r="AN19">
-        <v>0.02</v>
-      </c>
-      <c r="AO19">
-        <v>0.2</v>
-      </c>
-      <c r="AP19">
-        <v>2</v>
-      </c>
-      <c r="AQ19">
-        <v>0.4</v>
-      </c>
-      <c r="AR19">
-        <v>4</v>
-      </c>
-      <c r="AS19">
-        <v>0.8</v>
-      </c>
-      <c r="AT19">
-        <v>8</v>
-      </c>
-      <c r="AU19">
-        <v>1</v>
-      </c>
-      <c r="AV19">
-        <v>10</v>
-      </c>
-      <c r="AW19">
-        <v>0.2</v>
-      </c>
-      <c r="AX19">
-        <v>2</v>
-      </c>
-      <c r="AY19">
-        <v>0.4</v>
-      </c>
-      <c r="AZ19">
-        <v>4</v>
-      </c>
-      <c r="BA19">
-        <v>0.8</v>
-      </c>
-      <c r="BB19">
-        <v>8</v>
-      </c>
-      <c r="BC19">
-        <v>1</v>
-      </c>
-      <c r="BD19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:56">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>986</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>986</v>
-      </c>
-      <c r="E20" t="s">
-        <v>914</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0.8</v>
-      </c>
-      <c r="M20">
-        <v>1.2</v>
-      </c>
-      <c r="N20">
-        <v>0.02</v>
-      </c>
-      <c r="O20">
-        <v>-0.1</v>
-      </c>
-      <c r="P20">
-        <v>0.1</v>
-      </c>
-      <c r="Q20">
-        <v>20</v>
-      </c>
-      <c r="R20">
-        <v>999</v>
-      </c>
-      <c r="S20">
-        <v>-999</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>-2</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>0.02</v>
-      </c>
-      <c r="Y20">
-        <v>999</v>
-      </c>
-      <c r="Z20">
-        <v>-999</v>
-      </c>
-      <c r="AA20">
-        <v>999</v>
-      </c>
-      <c r="AB20">
-        <v>-999</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
-      </c>
-      <c r="AH20">
-        <v>0.02</v>
-      </c>
-      <c r="AI20">
-        <v>999</v>
-      </c>
-      <c r="AJ20">
-        <v>-999</v>
-      </c>
-      <c r="AK20">
-        <v>999</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>10</v>
-      </c>
-      <c r="AN20">
-        <v>0.02</v>
-      </c>
-      <c r="AO20">
-        <v>0.2</v>
-      </c>
-      <c r="AP20">
-        <v>2</v>
-      </c>
-      <c r="AQ20">
-        <v>0.4</v>
-      </c>
-      <c r="AR20">
-        <v>4</v>
-      </c>
-      <c r="AS20">
-        <v>0.8</v>
-      </c>
-      <c r="AT20">
-        <v>8</v>
-      </c>
-      <c r="AU20">
-        <v>1</v>
-      </c>
-      <c r="AV20">
-        <v>10</v>
-      </c>
-      <c r="AW20">
-        <v>0.2</v>
-      </c>
-      <c r="AX20">
-        <v>2</v>
-      </c>
-      <c r="AY20">
-        <v>0.4</v>
-      </c>
-      <c r="AZ20">
-        <v>4</v>
-      </c>
-      <c r="BA20">
-        <v>0.8</v>
-      </c>
-      <c r="BB20">
-        <v>8</v>
-      </c>
-      <c r="BC20">
-        <v>1</v>
-      </c>
-      <c r="BD20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:56">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>987</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>987</v>
-      </c>
-      <c r="E21" t="s">
-        <v>915</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0.8</v>
-      </c>
-      <c r="M21">
-        <v>1.2</v>
-      </c>
-      <c r="N21">
-        <v>0.02</v>
-      </c>
-      <c r="O21">
-        <v>-0.1</v>
-      </c>
-      <c r="P21">
-        <v>0.1</v>
-      </c>
-      <c r="Q21">
-        <v>20</v>
-      </c>
-      <c r="R21">
-        <v>999</v>
-      </c>
-      <c r="S21">
-        <v>-999</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>-2</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>0.02</v>
-      </c>
-      <c r="Y21">
-        <v>999</v>
-      </c>
-      <c r="Z21">
-        <v>-999</v>
-      </c>
-      <c r="AA21">
-        <v>999</v>
-      </c>
-      <c r="AB21">
-        <v>-999</v>
-      </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21">
-        <v>0.02</v>
-      </c>
-      <c r="AI21">
-        <v>999</v>
-      </c>
-      <c r="AJ21">
-        <v>-999</v>
-      </c>
-      <c r="AK21">
-        <v>999</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>10</v>
-      </c>
-      <c r="AN21">
-        <v>0.02</v>
-      </c>
-      <c r="AO21">
-        <v>0.2</v>
-      </c>
-      <c r="AP21">
-        <v>2</v>
-      </c>
-      <c r="AQ21">
-        <v>0.4</v>
-      </c>
-      <c r="AR21">
-        <v>4</v>
-      </c>
-      <c r="AS21">
-        <v>0.8</v>
-      </c>
-      <c r="AT21">
-        <v>8</v>
-      </c>
-      <c r="AU21">
-        <v>1</v>
-      </c>
-      <c r="AV21">
-        <v>10</v>
-      </c>
-      <c r="AW21">
-        <v>0.2</v>
-      </c>
-      <c r="AX21">
-        <v>2</v>
-      </c>
-      <c r="AY21">
-        <v>0.4</v>
-      </c>
-      <c r="AZ21">
-        <v>4</v>
-      </c>
-      <c r="BA21">
-        <v>0.8</v>
-      </c>
-      <c r="BB21">
-        <v>8</v>
-      </c>
-      <c r="BC21">
-        <v>1</v>
-      </c>
-      <c r="BD21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:56">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>988</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>988</v>
-      </c>
-      <c r="E22" t="s">
-        <v>916</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0.8</v>
-      </c>
-      <c r="M22">
-        <v>1.2</v>
-      </c>
-      <c r="N22">
-        <v>0.02</v>
-      </c>
-      <c r="O22">
-        <v>-0.1</v>
-      </c>
-      <c r="P22">
-        <v>0.1</v>
-      </c>
-      <c r="Q22">
-        <v>20</v>
-      </c>
-      <c r="R22">
-        <v>999</v>
-      </c>
-      <c r="S22">
-        <v>-999</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>-2</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>0.02</v>
-      </c>
-      <c r="Y22">
-        <v>999</v>
-      </c>
-      <c r="Z22">
-        <v>-999</v>
-      </c>
-      <c r="AA22">
-        <v>999</v>
-      </c>
-      <c r="AB22">
-        <v>-999</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22">
-        <v>0.02</v>
-      </c>
-      <c r="AI22">
-        <v>999</v>
-      </c>
-      <c r="AJ22">
-        <v>-999</v>
-      </c>
-      <c r="AK22">
-        <v>999</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>10</v>
-      </c>
-      <c r="AN22">
-        <v>0.02</v>
-      </c>
-      <c r="AO22">
-        <v>0.2</v>
-      </c>
-      <c r="AP22">
-        <v>2</v>
-      </c>
-      <c r="AQ22">
-        <v>0.4</v>
-      </c>
-      <c r="AR22">
-        <v>4</v>
-      </c>
-      <c r="AS22">
-        <v>0.8</v>
-      </c>
-      <c r="AT22">
-        <v>8</v>
-      </c>
-      <c r="AU22">
-        <v>1</v>
-      </c>
-      <c r="AV22">
-        <v>10</v>
-      </c>
-      <c r="AW22">
-        <v>0.2</v>
-      </c>
-      <c r="AX22">
-        <v>2</v>
-      </c>
-      <c r="AY22">
-        <v>0.4</v>
-      </c>
-      <c r="AZ22">
-        <v>4</v>
-      </c>
-      <c r="BA22">
-        <v>0.8</v>
-      </c>
-      <c r="BB22">
-        <v>8</v>
-      </c>
-      <c r="BC22">
-        <v>1</v>
-      </c>
-      <c r="BD22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:56">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>989</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>989</v>
-      </c>
-      <c r="E23" t="s">
-        <v>917</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0.8</v>
-      </c>
-      <c r="M23">
-        <v>1.2</v>
-      </c>
-      <c r="N23">
-        <v>0.02</v>
-      </c>
-      <c r="O23">
-        <v>-0.1</v>
-      </c>
-      <c r="P23">
-        <v>0.1</v>
-      </c>
-      <c r="Q23">
-        <v>20</v>
-      </c>
-      <c r="R23">
-        <v>999</v>
-      </c>
-      <c r="S23">
-        <v>-999</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>-2</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>0.02</v>
-      </c>
-      <c r="Y23">
-        <v>999</v>
-      </c>
-      <c r="Z23">
-        <v>-999</v>
-      </c>
-      <c r="AA23">
-        <v>999</v>
-      </c>
-      <c r="AB23">
-        <v>-999</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23">
-        <v>0.02</v>
-      </c>
-      <c r="AI23">
-        <v>999</v>
-      </c>
-      <c r="AJ23">
-        <v>-999</v>
-      </c>
-      <c r="AK23">
-        <v>999</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>10</v>
-      </c>
-      <c r="AN23">
-        <v>0.02</v>
-      </c>
-      <c r="AO23">
-        <v>0.2</v>
-      </c>
-      <c r="AP23">
-        <v>2</v>
-      </c>
-      <c r="AQ23">
-        <v>0.4</v>
-      </c>
-      <c r="AR23">
-        <v>4</v>
-      </c>
-      <c r="AS23">
-        <v>0.8</v>
-      </c>
-      <c r="AT23">
-        <v>8</v>
-      </c>
-      <c r="AU23">
-        <v>1</v>
-      </c>
-      <c r="AV23">
-        <v>10</v>
-      </c>
-      <c r="AW23">
-        <v>0.2</v>
-      </c>
-      <c r="AX23">
-        <v>2</v>
-      </c>
-      <c r="AY23">
-        <v>0.4</v>
-      </c>
-      <c r="AZ23">
-        <v>4</v>
-      </c>
-      <c r="BA23">
-        <v>0.8</v>
-      </c>
-      <c r="BB23">
-        <v>8</v>
-      </c>
-      <c r="BC23">
-        <v>1</v>
-      </c>
-      <c r="BD23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:56">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>990</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>990</v>
-      </c>
-      <c r="E24" t="s">
-        <v>918</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0.8</v>
-      </c>
-      <c r="M24">
-        <v>1.2</v>
-      </c>
-      <c r="N24">
-        <v>0.02</v>
-      </c>
-      <c r="O24">
-        <v>-0.1</v>
-      </c>
-      <c r="P24">
-        <v>0.1</v>
-      </c>
-      <c r="Q24">
-        <v>20</v>
-      </c>
-      <c r="R24">
-        <v>999</v>
-      </c>
-      <c r="S24">
-        <v>-999</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>-2</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>0.02</v>
-      </c>
-      <c r="Y24">
-        <v>999</v>
-      </c>
-      <c r="Z24">
-        <v>-999</v>
-      </c>
-      <c r="AA24">
-        <v>999</v>
-      </c>
-      <c r="AB24">
-        <v>-999</v>
-      </c>
-      <c r="AC24">
-        <v>1</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <v>0.02</v>
-      </c>
-      <c r="AI24">
-        <v>999</v>
-      </c>
-      <c r="AJ24">
-        <v>-999</v>
-      </c>
-      <c r="AK24">
-        <v>999</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>10</v>
-      </c>
-      <c r="AN24">
-        <v>0.02</v>
-      </c>
-      <c r="AO24">
-        <v>0.2</v>
-      </c>
-      <c r="AP24">
-        <v>2</v>
-      </c>
-      <c r="AQ24">
-        <v>0.4</v>
-      </c>
-      <c r="AR24">
-        <v>4</v>
-      </c>
-      <c r="AS24">
-        <v>0.8</v>
-      </c>
-      <c r="AT24">
-        <v>8</v>
-      </c>
-      <c r="AU24">
-        <v>1</v>
-      </c>
-      <c r="AV24">
-        <v>10</v>
-      </c>
-      <c r="AW24">
-        <v>0.2</v>
-      </c>
-      <c r="AX24">
-        <v>2</v>
-      </c>
-      <c r="AY24">
-        <v>0.4</v>
-      </c>
-      <c r="AZ24">
-        <v>4</v>
-      </c>
-      <c r="BA24">
-        <v>0.8</v>
-      </c>
-      <c r="BB24">
-        <v>8</v>
-      </c>
-      <c r="BC24">
-        <v>1</v>
-      </c>
-      <c r="BD24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:56">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>991</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>991</v>
-      </c>
-      <c r="E25" t="s">
-        <v>919</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0.8</v>
-      </c>
-      <c r="M25">
-        <v>1.2</v>
-      </c>
-      <c r="N25">
-        <v>0.02</v>
-      </c>
-      <c r="O25">
-        <v>-0.1</v>
-      </c>
-      <c r="P25">
-        <v>0.1</v>
-      </c>
-      <c r="Q25">
-        <v>20</v>
-      </c>
-      <c r="R25">
-        <v>999</v>
-      </c>
-      <c r="S25">
-        <v>-999</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>-2</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>0.02</v>
-      </c>
-      <c r="Y25">
-        <v>999</v>
-      </c>
-      <c r="Z25">
-        <v>-999</v>
-      </c>
-      <c r="AA25">
-        <v>999</v>
-      </c>
-      <c r="AB25">
-        <v>-999</v>
-      </c>
-      <c r="AC25">
-        <v>1</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <v>0.02</v>
-      </c>
-      <c r="AI25">
-        <v>999</v>
-      </c>
-      <c r="AJ25">
-        <v>-999</v>
-      </c>
-      <c r="AK25">
-        <v>999</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>10</v>
-      </c>
-      <c r="AN25">
-        <v>0.02</v>
-      </c>
-      <c r="AO25">
-        <v>0.2</v>
-      </c>
-      <c r="AP25">
-        <v>2</v>
-      </c>
-      <c r="AQ25">
-        <v>0.4</v>
-      </c>
-      <c r="AR25">
-        <v>4</v>
-      </c>
-      <c r="AS25">
-        <v>0.8</v>
-      </c>
-      <c r="AT25">
-        <v>8</v>
-      </c>
-      <c r="AU25">
-        <v>1</v>
-      </c>
-      <c r="AV25">
-        <v>10</v>
-      </c>
-      <c r="AW25">
-        <v>0.2</v>
-      </c>
-      <c r="AX25">
-        <v>2</v>
-      </c>
-      <c r="AY25">
-        <v>0.4</v>
-      </c>
-      <c r="AZ25">
-        <v>4</v>
-      </c>
-      <c r="BA25">
-        <v>0.8</v>
-      </c>
-      <c r="BB25">
-        <v>8</v>
-      </c>
-      <c r="BC25">
-        <v>1</v>
-      </c>
-      <c r="BD25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:56">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>992</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>992</v>
-      </c>
-      <c r="E26" t="s">
-        <v>920</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0.8</v>
-      </c>
-      <c r="M26">
-        <v>1.2</v>
-      </c>
-      <c r="N26">
-        <v>0.02</v>
-      </c>
-      <c r="O26">
-        <v>-0.1</v>
-      </c>
-      <c r="P26">
-        <v>0.1</v>
-      </c>
-      <c r="Q26">
-        <v>20</v>
-      </c>
-      <c r="R26">
-        <v>999</v>
-      </c>
-      <c r="S26">
-        <v>-999</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>-2</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>0.02</v>
-      </c>
-      <c r="Y26">
-        <v>999</v>
-      </c>
-      <c r="Z26">
-        <v>-999</v>
-      </c>
-      <c r="AA26">
-        <v>999</v>
-      </c>
-      <c r="AB26">
-        <v>-999</v>
-      </c>
-      <c r="AC26">
-        <v>1</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>1</v>
-      </c>
-      <c r="AH26">
-        <v>0.02</v>
-      </c>
-      <c r="AI26">
-        <v>999</v>
-      </c>
-      <c r="AJ26">
-        <v>-999</v>
-      </c>
-      <c r="AK26">
-        <v>999</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>10</v>
-      </c>
-      <c r="AN26">
-        <v>0.02</v>
-      </c>
-      <c r="AO26">
-        <v>0.2</v>
-      </c>
-      <c r="AP26">
-        <v>2</v>
-      </c>
-      <c r="AQ26">
-        <v>0.4</v>
-      </c>
-      <c r="AR26">
-        <v>4</v>
-      </c>
-      <c r="AS26">
-        <v>0.8</v>
-      </c>
-      <c r="AT26">
-        <v>8</v>
-      </c>
-      <c r="AU26">
-        <v>1</v>
-      </c>
-      <c r="AV26">
-        <v>10</v>
-      </c>
-      <c r="AW26">
-        <v>0.2</v>
-      </c>
-      <c r="AX26">
-        <v>2</v>
-      </c>
-      <c r="AY26">
-        <v>0.4</v>
-      </c>
-      <c r="AZ26">
-        <v>4</v>
-      </c>
-      <c r="BA26">
-        <v>0.8</v>
-      </c>
-      <c r="BB26">
-        <v>8</v>
-      </c>
-      <c r="BC26">
-        <v>1</v>
-      </c>
-      <c r="BD26">
         <v>12</v>
       </c>
     </row>
@@ -22216,7 +19713,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22239,61 +19736,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>1009</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>930</v>
@@ -22302,46 +19799,46 @@
         <v>931</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>939</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -22349,13 +19846,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="E2" t="s">
         <v>968</v>
@@ -22456,19 +19953,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="E3" t="s">
         <v>969</v>
       </c>
       <c r="F3" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -22563,19 +20060,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="E4" t="s">
         <v>970</v>
       </c>
       <c r="F4" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -22670,19 +20167,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="E5" t="s">
         <v>971</v>
       </c>
       <c r="F5" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -22777,19 +20274,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="E6" t="s">
         <v>972</v>
       </c>
       <c r="F6" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -22884,19 +20381,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="E7" t="s">
         <v>973</v>
       </c>
       <c r="F7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -22991,19 +20488,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="E8" t="s">
         <v>974</v>
       </c>
       <c r="F8" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -23098,19 +20595,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="E9" t="s">
         <v>975</v>
       </c>
       <c r="F9" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -23205,19 +20702,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="E10" t="s">
         <v>976</v>
       </c>
       <c r="F10" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -23312,19 +20809,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="E11" t="s">
         <v>977</v>
       </c>
       <c r="F11" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -23419,19 +20916,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="E12" t="s">
         <v>978</v>
       </c>
       <c r="F12" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -23518,1504 +21015,6 @@
         <v>10</v>
       </c>
       <c r="AM12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F13" t="s">
-        <v>625</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0.02</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0.1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>0.8</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>999</v>
-      </c>
-      <c r="W13">
-        <v>-999</v>
-      </c>
-      <c r="X13">
-        <v>-0.1</v>
-      </c>
-      <c r="Y13">
-        <v>0.1</v>
-      </c>
-      <c r="Z13">
-        <v>999</v>
-      </c>
-      <c r="AA13">
-        <v>-999</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>0.1</v>
-      </c>
-      <c r="AD13">
-        <v>0.02</v>
-      </c>
-      <c r="AE13">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF13">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG13">
-        <v>0.05</v>
-      </c>
-      <c r="AH13">
-        <v>-0.05</v>
-      </c>
-      <c r="AI13">
-        <v>999</v>
-      </c>
-      <c r="AJ13">
-        <v>-999</v>
-      </c>
-      <c r="AK13">
-        <v>0.02</v>
-      </c>
-      <c r="AL13">
-        <v>10</v>
-      </c>
-      <c r="AM13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E14" t="s">
-        <v>980</v>
-      </c>
-      <c r="F14" t="s">
-        <v>628</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0.02</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0.1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>0.8</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>999</v>
-      </c>
-      <c r="W14">
-        <v>-999</v>
-      </c>
-      <c r="X14">
-        <v>-0.1</v>
-      </c>
-      <c r="Y14">
-        <v>0.1</v>
-      </c>
-      <c r="Z14">
-        <v>999</v>
-      </c>
-      <c r="AA14">
-        <v>-999</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>0.1</v>
-      </c>
-      <c r="AD14">
-        <v>0.02</v>
-      </c>
-      <c r="AE14">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF14">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG14">
-        <v>0.05</v>
-      </c>
-      <c r="AH14">
-        <v>-0.05</v>
-      </c>
-      <c r="AI14">
-        <v>999</v>
-      </c>
-      <c r="AJ14">
-        <v>-999</v>
-      </c>
-      <c r="AK14">
-        <v>0.02</v>
-      </c>
-      <c r="AL14">
-        <v>10</v>
-      </c>
-      <c r="AM14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E15" t="s">
-        <v>981</v>
-      </c>
-      <c r="F15" t="s">
-        <v>629</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0.02</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0.1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>0.8</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>999</v>
-      </c>
-      <c r="W15">
-        <v>-999</v>
-      </c>
-      <c r="X15">
-        <v>-0.1</v>
-      </c>
-      <c r="Y15">
-        <v>0.1</v>
-      </c>
-      <c r="Z15">
-        <v>999</v>
-      </c>
-      <c r="AA15">
-        <v>-999</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>0.1</v>
-      </c>
-      <c r="AD15">
-        <v>0.02</v>
-      </c>
-      <c r="AE15">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF15">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG15">
-        <v>0.05</v>
-      </c>
-      <c r="AH15">
-        <v>-0.05</v>
-      </c>
-      <c r="AI15">
-        <v>999</v>
-      </c>
-      <c r="AJ15">
-        <v>-999</v>
-      </c>
-      <c r="AK15">
-        <v>0.02</v>
-      </c>
-      <c r="AL15">
-        <v>10</v>
-      </c>
-      <c r="AM15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E16" t="s">
-        <v>982</v>
-      </c>
-      <c r="F16" t="s">
-        <v>630</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0.02</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0.1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>0.8</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>999</v>
-      </c>
-      <c r="W16">
-        <v>-999</v>
-      </c>
-      <c r="X16">
-        <v>-0.1</v>
-      </c>
-      <c r="Y16">
-        <v>0.1</v>
-      </c>
-      <c r="Z16">
-        <v>999</v>
-      </c>
-      <c r="AA16">
-        <v>-999</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>0.1</v>
-      </c>
-      <c r="AD16">
-        <v>0.02</v>
-      </c>
-      <c r="AE16">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF16">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG16">
-        <v>0.05</v>
-      </c>
-      <c r="AH16">
-        <v>-0.05</v>
-      </c>
-      <c r="AI16">
-        <v>999</v>
-      </c>
-      <c r="AJ16">
-        <v>-999</v>
-      </c>
-      <c r="AK16">
-        <v>0.02</v>
-      </c>
-      <c r="AL16">
-        <v>10</v>
-      </c>
-      <c r="AM16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E17" t="s">
-        <v>983</v>
-      </c>
-      <c r="F17" t="s">
-        <v>633</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0.02</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0.1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>0.8</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>999</v>
-      </c>
-      <c r="W17">
-        <v>-999</v>
-      </c>
-      <c r="X17">
-        <v>-0.1</v>
-      </c>
-      <c r="Y17">
-        <v>0.1</v>
-      </c>
-      <c r="Z17">
-        <v>999</v>
-      </c>
-      <c r="AA17">
-        <v>-999</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>0.1</v>
-      </c>
-      <c r="AD17">
-        <v>0.02</v>
-      </c>
-      <c r="AE17">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF17">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG17">
-        <v>0.05</v>
-      </c>
-      <c r="AH17">
-        <v>-0.05</v>
-      </c>
-      <c r="AI17">
-        <v>999</v>
-      </c>
-      <c r="AJ17">
-        <v>-999</v>
-      </c>
-      <c r="AK17">
-        <v>0.02</v>
-      </c>
-      <c r="AL17">
-        <v>10</v>
-      </c>
-      <c r="AM17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E18" t="s">
-        <v>984</v>
-      </c>
-      <c r="F18" t="s">
-        <v>634</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0.02</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0.1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>0.8</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>999</v>
-      </c>
-      <c r="W18">
-        <v>-999</v>
-      </c>
-      <c r="X18">
-        <v>-0.1</v>
-      </c>
-      <c r="Y18">
-        <v>0.1</v>
-      </c>
-      <c r="Z18">
-        <v>999</v>
-      </c>
-      <c r="AA18">
-        <v>-999</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>0.1</v>
-      </c>
-      <c r="AD18">
-        <v>0.02</v>
-      </c>
-      <c r="AE18">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF18">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG18">
-        <v>0.05</v>
-      </c>
-      <c r="AH18">
-        <v>-0.05</v>
-      </c>
-      <c r="AI18">
-        <v>999</v>
-      </c>
-      <c r="AJ18">
-        <v>-999</v>
-      </c>
-      <c r="AK18">
-        <v>0.02</v>
-      </c>
-      <c r="AL18">
-        <v>10</v>
-      </c>
-      <c r="AM18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E19" t="s">
-        <v>985</v>
-      </c>
-      <c r="F19" t="s">
-        <v>635</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0.02</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0.1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>0.8</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>999</v>
-      </c>
-      <c r="W19">
-        <v>-999</v>
-      </c>
-      <c r="X19">
-        <v>-0.1</v>
-      </c>
-      <c r="Y19">
-        <v>0.1</v>
-      </c>
-      <c r="Z19">
-        <v>999</v>
-      </c>
-      <c r="AA19">
-        <v>-999</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>0.1</v>
-      </c>
-      <c r="AD19">
-        <v>0.02</v>
-      </c>
-      <c r="AE19">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF19">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG19">
-        <v>0.05</v>
-      </c>
-      <c r="AH19">
-        <v>-0.05</v>
-      </c>
-      <c r="AI19">
-        <v>999</v>
-      </c>
-      <c r="AJ19">
-        <v>-999</v>
-      </c>
-      <c r="AK19">
-        <v>0.02</v>
-      </c>
-      <c r="AL19">
-        <v>10</v>
-      </c>
-      <c r="AM19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E20" t="s">
-        <v>986</v>
-      </c>
-      <c r="F20" t="s">
-        <v>636</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0.02</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0.1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>0.8</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>999</v>
-      </c>
-      <c r="W20">
-        <v>-999</v>
-      </c>
-      <c r="X20">
-        <v>-0.1</v>
-      </c>
-      <c r="Y20">
-        <v>0.1</v>
-      </c>
-      <c r="Z20">
-        <v>999</v>
-      </c>
-      <c r="AA20">
-        <v>-999</v>
-      </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>0.1</v>
-      </c>
-      <c r="AD20">
-        <v>0.02</v>
-      </c>
-      <c r="AE20">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF20">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG20">
-        <v>0.05</v>
-      </c>
-      <c r="AH20">
-        <v>-0.05</v>
-      </c>
-      <c r="AI20">
-        <v>999</v>
-      </c>
-      <c r="AJ20">
-        <v>-999</v>
-      </c>
-      <c r="AK20">
-        <v>0.02</v>
-      </c>
-      <c r="AL20">
-        <v>10</v>
-      </c>
-      <c r="AM20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E21" t="s">
-        <v>987</v>
-      </c>
-      <c r="F21" t="s">
-        <v>638</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0.02</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0.1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>0.8</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>999</v>
-      </c>
-      <c r="W21">
-        <v>-999</v>
-      </c>
-      <c r="X21">
-        <v>-0.1</v>
-      </c>
-      <c r="Y21">
-        <v>0.1</v>
-      </c>
-      <c r="Z21">
-        <v>999</v>
-      </c>
-      <c r="AA21">
-        <v>-999</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AC21">
-        <v>0.1</v>
-      </c>
-      <c r="AD21">
-        <v>0.02</v>
-      </c>
-      <c r="AE21">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF21">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG21">
-        <v>0.05</v>
-      </c>
-      <c r="AH21">
-        <v>-0.05</v>
-      </c>
-      <c r="AI21">
-        <v>999</v>
-      </c>
-      <c r="AJ21">
-        <v>-999</v>
-      </c>
-      <c r="AK21">
-        <v>0.02</v>
-      </c>
-      <c r="AL21">
-        <v>10</v>
-      </c>
-      <c r="AM21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E22" t="s">
-        <v>988</v>
-      </c>
-      <c r="F22" t="s">
-        <v>640</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0.02</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0.1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>0.8</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>999</v>
-      </c>
-      <c r="W22">
-        <v>-999</v>
-      </c>
-      <c r="X22">
-        <v>-0.1</v>
-      </c>
-      <c r="Y22">
-        <v>0.1</v>
-      </c>
-      <c r="Z22">
-        <v>999</v>
-      </c>
-      <c r="AA22">
-        <v>-999</v>
-      </c>
-      <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>0.1</v>
-      </c>
-      <c r="AD22">
-        <v>0.02</v>
-      </c>
-      <c r="AE22">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF22">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG22">
-        <v>0.05</v>
-      </c>
-      <c r="AH22">
-        <v>-0.05</v>
-      </c>
-      <c r="AI22">
-        <v>999</v>
-      </c>
-      <c r="AJ22">
-        <v>-999</v>
-      </c>
-      <c r="AK22">
-        <v>0.02</v>
-      </c>
-      <c r="AL22">
-        <v>10</v>
-      </c>
-      <c r="AM22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E23" t="s">
-        <v>989</v>
-      </c>
-      <c r="F23" t="s">
-        <v>647</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0.02</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0.1</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>0.8</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>999</v>
-      </c>
-      <c r="W23">
-        <v>-999</v>
-      </c>
-      <c r="X23">
-        <v>-0.1</v>
-      </c>
-      <c r="Y23">
-        <v>0.1</v>
-      </c>
-      <c r="Z23">
-        <v>999</v>
-      </c>
-      <c r="AA23">
-        <v>-999</v>
-      </c>
-      <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
-        <v>0.1</v>
-      </c>
-      <c r="AD23">
-        <v>0.02</v>
-      </c>
-      <c r="AE23">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF23">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG23">
-        <v>0.05</v>
-      </c>
-      <c r="AH23">
-        <v>-0.05</v>
-      </c>
-      <c r="AI23">
-        <v>999</v>
-      </c>
-      <c r="AJ23">
-        <v>-999</v>
-      </c>
-      <c r="AK23">
-        <v>0.02</v>
-      </c>
-      <c r="AL23">
-        <v>10</v>
-      </c>
-      <c r="AM23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E24" t="s">
-        <v>990</v>
-      </c>
-      <c r="F24" t="s">
-        <v>648</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0.02</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0.1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>0.8</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>999</v>
-      </c>
-      <c r="W24">
-        <v>-999</v>
-      </c>
-      <c r="X24">
-        <v>-0.1</v>
-      </c>
-      <c r="Y24">
-        <v>0.1</v>
-      </c>
-      <c r="Z24">
-        <v>999</v>
-      </c>
-      <c r="AA24">
-        <v>-999</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AC24">
-        <v>0.1</v>
-      </c>
-      <c r="AD24">
-        <v>0.02</v>
-      </c>
-      <c r="AE24">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF24">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG24">
-        <v>0.05</v>
-      </c>
-      <c r="AH24">
-        <v>-0.05</v>
-      </c>
-      <c r="AI24">
-        <v>999</v>
-      </c>
-      <c r="AJ24">
-        <v>-999</v>
-      </c>
-      <c r="AK24">
-        <v>0.02</v>
-      </c>
-      <c r="AL24">
-        <v>10</v>
-      </c>
-      <c r="AM24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E25" t="s">
-        <v>991</v>
-      </c>
-      <c r="F25" t="s">
-        <v>651</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0.02</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0.1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>0.8</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>999</v>
-      </c>
-      <c r="W25">
-        <v>-999</v>
-      </c>
-      <c r="X25">
-        <v>-0.1</v>
-      </c>
-      <c r="Y25">
-        <v>0.1</v>
-      </c>
-      <c r="Z25">
-        <v>999</v>
-      </c>
-      <c r="AA25">
-        <v>-999</v>
-      </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AC25">
-        <v>0.1</v>
-      </c>
-      <c r="AD25">
-        <v>0.02</v>
-      </c>
-      <c r="AE25">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF25">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG25">
-        <v>0.05</v>
-      </c>
-      <c r="AH25">
-        <v>-0.05</v>
-      </c>
-      <c r="AI25">
-        <v>999</v>
-      </c>
-      <c r="AJ25">
-        <v>-999</v>
-      </c>
-      <c r="AK25">
-        <v>0.02</v>
-      </c>
-      <c r="AL25">
-        <v>10</v>
-      </c>
-      <c r="AM25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E26" t="s">
-        <v>992</v>
-      </c>
-      <c r="F26" t="s">
-        <v>652</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0.02</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0.1</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>0.8</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>999</v>
-      </c>
-      <c r="W26">
-        <v>-999</v>
-      </c>
-      <c r="X26">
-        <v>-0.1</v>
-      </c>
-      <c r="Y26">
-        <v>0.1</v>
-      </c>
-      <c r="Z26">
-        <v>999</v>
-      </c>
-      <c r="AA26">
-        <v>-999</v>
-      </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AC26">
-        <v>0.1</v>
-      </c>
-      <c r="AD26">
-        <v>0.02</v>
-      </c>
-      <c r="AE26">
-        <v>-0.0002833</v>
-      </c>
-      <c r="AF26">
-        <v>0.0002833</v>
-      </c>
-      <c r="AG26">
-        <v>0.05</v>
-      </c>
-      <c r="AH26">
-        <v>-0.05</v>
-      </c>
-      <c r="AI26">
-        <v>999</v>
-      </c>
-      <c r="AJ26">
-        <v>-999</v>
-      </c>
-      <c r="AK26">
-        <v>0.02</v>
-      </c>
-      <c r="AL26">
-        <v>10</v>
-      </c>
-      <c r="AM26">
         <v>10</v>
       </c>
     </row>
@@ -25026,7 +21025,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25049,16 +21048,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1047</v>
+        <v>1019</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>657</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -25066,13 +21065,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="E2" t="s">
         <v>968</v>
@@ -25092,13 +21091,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1050</v>
+        <v>1022</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1050</v>
+        <v>1022</v>
       </c>
       <c r="E3" t="s">
         <v>969</v>
@@ -25118,13 +21117,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
       <c r="E4" t="s">
         <v>970</v>
@@ -25144,13 +21143,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
       <c r="E5" t="s">
         <v>971</v>
@@ -25170,13 +21169,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="E6" t="s">
         <v>972</v>
@@ -25196,13 +21195,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1054</v>
+        <v>1026</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1054</v>
+        <v>1026</v>
       </c>
       <c r="E7" t="s">
         <v>973</v>
@@ -25222,13 +21221,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1055</v>
+        <v>1027</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1055</v>
+        <v>1027</v>
       </c>
       <c r="E8" t="s">
         <v>974</v>
@@ -25248,13 +21247,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1056</v>
+        <v>1028</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1056</v>
+        <v>1028</v>
       </c>
       <c r="E9" t="s">
         <v>975</v>
@@ -25274,13 +21273,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1057</v>
+        <v>1029</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1057</v>
+        <v>1029</v>
       </c>
       <c r="E10" t="s">
         <v>976</v>
@@ -25300,13 +21299,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1058</v>
+        <v>1030</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1058</v>
+        <v>1030</v>
       </c>
       <c r="E11" t="s">
         <v>977</v>
@@ -25326,13 +21325,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="E12" t="s">
         <v>978</v>
@@ -25344,370 +21343,6 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E14" t="s">
-        <v>980</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E15" t="s">
-        <v>981</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E16" t="s">
-        <v>982</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E17" t="s">
-        <v>983</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E18" t="s">
-        <v>984</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E19" t="s">
-        <v>985</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E20" t="s">
-        <v>986</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E21" t="s">
-        <v>987</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E22" t="s">
-        <v>988</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E23" t="s">
-        <v>989</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E24" t="s">
-        <v>990</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E25" t="s">
-        <v>991</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E26" t="s">
-        <v>992</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
         <v>1</v>
       </c>
     </row>
@@ -53453,7 +49088,7 @@
         <v>683</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>683</v>
@@ -53542,7 +49177,7 @@
         <v>684</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>684</v>
@@ -53631,7 +49266,7 @@
         <v>685</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>685</v>
@@ -54343,7 +49978,7 @@
         <v>693</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>693</v>
@@ -55678,7 +51313,7 @@
         <v>708</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>708</v>
@@ -55767,7 +51402,7 @@
         <v>709</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>709</v>
@@ -55856,7 +51491,7 @@
         <v>710</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>710</v>
@@ -55945,7 +51580,7 @@
         <v>711</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>711</v>
@@ -56746,7 +52381,7 @@
         <v>720</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>720</v>
@@ -56835,7 +52470,7 @@
         <v>721</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>721</v>
@@ -57559,7 +53194,7 @@
         <v>742</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>742</v>
@@ -57603,7 +53238,7 @@
         <v>743</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>743</v>
@@ -57647,7 +53282,7 @@
         <v>744</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>744</v>
@@ -57999,7 +53634,7 @@
         <v>752</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>752</v>
@@ -58659,7 +54294,7 @@
         <v>767</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>767</v>
@@ -58703,7 +54338,7 @@
         <v>768</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>768</v>
@@ -58747,7 +54382,7 @@
         <v>769</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>769</v>
@@ -58791,7 +54426,7 @@
         <v>770</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>770</v>
@@ -58835,7 +54470,7 @@
         <v>771</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>771</v>
@@ -58923,7 +54558,7 @@
         <v>773</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>773</v>
@@ -59187,7 +54822,7 @@
         <v>779</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>779</v>
@@ -59231,7 +54866,7 @@
         <v>780</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>780</v>
@@ -59319,7 +54954,7 @@
         <v>782</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>782</v>
@@ -59363,7 +54998,7 @@
         <v>783</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>783</v>

--- a/ACTIVSg200/3.IL200_dyn_50wt.xlsx
+++ b/ACTIVSg200/3.IL200_dyn_50wt.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1033">
   <si>
     <t>idx</t>
   </si>
@@ -2495,6 +2495,9 @@
   </si>
   <si>
     <t>IEEEG1_20</t>
+  </si>
+  <si>
+    <t>IEEEG1_21</t>
   </si>
   <si>
     <t>KT</t>
@@ -12342,7 +12345,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12451,7 +12454,7 @@
         <v>802</v>
       </c>
       <c r="E2" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -12460,13 +12463,13 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>0.320319</v>
+        <v>0.278892</v>
       </c>
       <c r="K2">
-        <v>2.1</v>
+        <v>2.50944</v>
       </c>
       <c r="L2">
         <v>0.1</v>
@@ -12493,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>6.30006</v>
+        <v>7.52841</v>
       </c>
       <c r="U2">
         <v>0.5</v>
@@ -12534,7 +12537,7 @@
         <v>803</v>
       </c>
       <c r="E3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -12543,13 +12546,13 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.320319</v>
       </c>
       <c r="K3">
-        <v>2.50874</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
         <v>0.1</v>
@@ -12576,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7.5263</v>
+        <v>6.30006</v>
       </c>
       <c r="U3">
         <v>0.5</v>
@@ -12617,7 +12620,7 @@
         <v>804</v>
       </c>
       <c r="E4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -12626,13 +12629,13 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2.50874</v>
       </c>
       <c r="L4">
         <v>0.1</v>
@@ -12659,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9.00009</v>
+        <v>7.5263</v>
       </c>
       <c r="U4">
         <v>0.5</v>
@@ -12700,7 +12703,7 @@
         <v>805</v>
       </c>
       <c r="E5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12709,7 +12712,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>0.5</v>
@@ -12783,7 +12786,7 @@
         <v>806</v>
       </c>
       <c r="E6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12792,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>0.5</v>
@@ -12866,7 +12869,7 @@
         <v>807</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12881,7 +12884,7 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0.1</v>
@@ -12908,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>9.00009</v>
       </c>
       <c r="U7">
         <v>0.5</v>
@@ -12949,7 +12952,7 @@
         <v>808</v>
       </c>
       <c r="E8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12958,10 +12961,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>0.293992</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -13032,7 +13035,7 @@
         <v>809</v>
       </c>
       <c r="E9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13044,10 +13047,10 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>0.385075</v>
+        <v>0.293992</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
         <v>0.1</v>
@@ -13074,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>9.00009</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>0.5</v>
@@ -13115,7 +13118,7 @@
         <v>810</v>
       </c>
       <c r="E10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13127,7 +13130,7 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>0.205696</v>
+        <v>0.385075</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -13198,7 +13201,7 @@
         <v>811</v>
       </c>
       <c r="E11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13210,7 +13213,7 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>0.41585</v>
+        <v>0.205696</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -13281,7 +13284,7 @@
         <v>812</v>
       </c>
       <c r="E12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -13293,7 +13296,7 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>0.41585</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -13364,7 +13367,7 @@
         <v>813</v>
       </c>
       <c r="E13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -13447,7 +13450,7 @@
         <v>814</v>
       </c>
       <c r="E14" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -13530,7 +13533,7 @@
         <v>815</v>
       </c>
       <c r="E15" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -13545,7 +13548,7 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.719882</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>0.1</v>
@@ -13572,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2.39961</v>
+        <v>9.00009</v>
       </c>
       <c r="U15">
         <v>0.5</v>
@@ -13613,7 +13616,7 @@
         <v>816</v>
       </c>
       <c r="E16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -13622,13 +13625,13 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J16">
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>0.719882</v>
       </c>
       <c r="L16">
         <v>0.1</v>
@@ -13655,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>9.00009</v>
+        <v>2.39961</v>
       </c>
       <c r="U16">
         <v>0.5</v>
@@ -13696,7 +13699,7 @@
         <v>817</v>
       </c>
       <c r="E17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -13705,13 +13708,13 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J17">
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>0.1</v>
@@ -13738,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>6.30006</v>
+        <v>9.00009</v>
       </c>
       <c r="U17">
         <v>0.5</v>
@@ -13779,7 +13782,7 @@
         <v>818</v>
       </c>
       <c r="E18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -13788,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J18">
         <v>0.5</v>
@@ -13821,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>6.30006</v>
       </c>
       <c r="U18">
         <v>0.5</v>
@@ -13862,7 +13865,7 @@
         <v>819</v>
       </c>
       <c r="E19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -13871,13 +13874,13 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>2.70961</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
         <v>0.1</v>
@@ -13904,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>8.128909999999999</v>
+        <v>7</v>
       </c>
       <c r="U19">
         <v>0.5</v>
@@ -13945,7 +13948,7 @@
         <v>820</v>
       </c>
       <c r="E20" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -13960,7 +13963,7 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2.70961</v>
       </c>
       <c r="L20">
         <v>0.1</v>
@@ -13987,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>9.00009</v>
+        <v>8.128909999999999</v>
       </c>
       <c r="U20">
         <v>0.5</v>
@@ -14028,7 +14031,7 @@
         <v>821</v>
       </c>
       <c r="E21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -14037,7 +14040,7 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J21">
         <v>0.5</v>
@@ -14070,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>10</v>
+        <v>9.00009</v>
       </c>
       <c r="U21">
         <v>0.5</v>
@@ -14094,6 +14097,89 @@
         <v>0</v>
       </c>
       <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>822</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>822</v>
+      </c>
+      <c r="E22" t="s">
+        <v>721</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>0.1</v>
+      </c>
+      <c r="M22">
+        <v>0.1</v>
+      </c>
+      <c r="N22">
+        <v>-0.1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.4</v>
+      </c>
+      <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0.05</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
         <v>0</v>
       </c>
     </row>
@@ -14145,10 +14231,10 @@
         <v>730</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>731</v>
@@ -14168,13 +14254,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E2" t="s">
         <v>689</v>
@@ -14218,13 +14304,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E3" t="s">
         <v>690</v>
@@ -14268,13 +14354,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E4" t="s">
         <v>691</v>
@@ -14318,13 +14404,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E5" t="s">
         <v>692</v>
@@ -14368,13 +14454,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E6" t="s">
         <v>693</v>
@@ -14418,13 +14504,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E7" t="s">
         <v>694</v>
@@ -14468,13 +14554,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E8" t="s">
         <v>695</v>
@@ -14518,13 +14604,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E9" t="s">
         <v>712</v>
@@ -14568,13 +14654,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E10" t="s">
         <v>713</v>
@@ -14618,13 +14704,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E11" t="s">
         <v>714</v>
@@ -14668,13 +14754,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E12" t="s">
         <v>715</v>
@@ -14718,13 +14804,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E13" t="s">
         <v>716</v>
@@ -14768,13 +14854,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E14" t="s">
         <v>717</v>
@@ -14818,13 +14904,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E15" t="s">
         <v>718</v>
@@ -14868,13 +14954,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E16" t="s">
         <v>719</v>
@@ -14918,13 +15004,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E17" t="s">
         <v>723</v>
@@ -14968,13 +15054,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E18" t="s">
         <v>724</v>
@@ -15046,22 +15132,22 @@
         <v>725</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>785</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -15069,13 +15155,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E2" t="s">
         <v>676</v>
@@ -15104,13 +15190,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E3" t="s">
         <v>677</v>
@@ -15139,13 +15225,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E4" t="s">
         <v>678</v>
@@ -15174,13 +15260,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E5" t="s">
         <v>679</v>
@@ -15209,13 +15295,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E6" t="s">
         <v>680</v>
@@ -15244,13 +15330,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E7" t="s">
         <v>681</v>
@@ -15279,13 +15365,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E8" t="s">
         <v>682</v>
@@ -15314,13 +15400,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E9" t="s">
         <v>683</v>
@@ -15349,13 +15435,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E10" t="s">
         <v>684</v>
@@ -15384,13 +15470,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E11" t="s">
         <v>685</v>
@@ -15419,13 +15505,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E12" t="s">
         <v>686</v>
@@ -15454,13 +15540,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E13" t="s">
         <v>687</v>
@@ -15489,13 +15575,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E14" t="s">
         <v>688</v>
@@ -15524,13 +15610,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E15" t="s">
         <v>689</v>
@@ -15559,13 +15645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E16" t="s">
         <v>690</v>
@@ -15594,13 +15680,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E17" t="s">
         <v>691</v>
@@ -15629,13 +15715,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E18" t="s">
         <v>692</v>
@@ -15664,13 +15750,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E19" t="s">
         <v>693</v>
@@ -15699,13 +15785,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E20" t="s">
         <v>694</v>
@@ -15734,13 +15820,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E21" t="s">
         <v>695</v>
@@ -15769,13 +15855,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E22" t="s">
         <v>696</v>
@@ -15804,13 +15890,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E23" t="s">
         <v>697</v>
@@ -15839,13 +15925,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E24" t="s">
         <v>698</v>
@@ -15874,13 +15960,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E25" t="s">
         <v>699</v>
@@ -15909,13 +15995,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E26" t="s">
         <v>700</v>
@@ -15944,13 +16030,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E27" t="s">
         <v>701</v>
@@ -15979,13 +16065,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E28" t="s">
         <v>702</v>
@@ -16014,13 +16100,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E29" t="s">
         <v>703</v>
@@ -16049,13 +16135,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E30" t="s">
         <v>704</v>
@@ -16084,13 +16170,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E31" t="s">
         <v>705</v>
@@ -16119,13 +16205,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E32" t="s">
         <v>706</v>
@@ -16154,13 +16240,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E33" t="s">
         <v>707</v>
@@ -16189,13 +16275,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E34" t="s">
         <v>708</v>
@@ -16224,13 +16310,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E35" t="s">
         <v>709</v>
@@ -16259,13 +16345,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E36" t="s">
         <v>710</v>
@@ -16294,13 +16380,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E37" t="s">
         <v>711</v>
@@ -16329,13 +16415,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E38" t="s">
         <v>712</v>
@@ -16364,13 +16450,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E39" t="s">
         <v>713</v>
@@ -16399,13 +16485,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E40" t="s">
         <v>714</v>
@@ -16434,13 +16520,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E41" t="s">
         <v>715</v>
@@ -16469,13 +16555,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E42" t="s">
         <v>716</v>
@@ -16504,13 +16590,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E43" t="s">
         <v>717</v>
@@ -16539,13 +16625,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E44" t="s">
         <v>718</v>
@@ -16574,13 +16660,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E45" t="s">
         <v>719</v>
@@ -16609,13 +16695,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E46" t="s">
         <v>720</v>
@@ -16644,13 +16730,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E47" t="s">
         <v>721</v>
@@ -16679,13 +16765,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E48" t="s">
         <v>722</v>
@@ -16714,13 +16800,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E49" t="s">
         <v>723</v>
@@ -16749,13 +16835,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E50" t="s">
         <v>724</v>
@@ -16818,49 +16904,49 @@
         <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>665</v>
@@ -16874,13 +16960,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E2">
         <v>65</v>
@@ -16948,13 +17034,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E3">
         <v>104</v>
@@ -17022,13 +17108,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E4">
         <v>105</v>
@@ -17096,13 +17182,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E5">
         <v>114</v>
@@ -17170,13 +17256,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E6">
         <v>115</v>
@@ -17244,13 +17330,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E7">
         <v>125</v>
@@ -17318,13 +17404,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E8">
         <v>126</v>
@@ -17392,13 +17478,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E9">
         <v>127</v>
@@ -17466,13 +17552,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E10">
         <v>135</v>
@@ -17540,13 +17626,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E11">
         <v>136</v>
@@ -17614,13 +17700,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E12">
         <v>147</v>
@@ -17713,70 +17799,70 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>729</v>
@@ -17785,28 +17871,28 @@
         <v>730</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>788</v>
@@ -17815,58 +17901,58 @@
         <v>789</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" spans="1:56">
@@ -17874,16 +17960,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -18041,16 +18127,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -18208,16 +18294,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -18375,16 +18461,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -18542,16 +18628,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -18709,16 +18795,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -18876,16 +18962,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E8" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -19043,16 +19129,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E9" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -19210,16 +19296,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E10" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -19377,16 +19463,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -19544,16 +19630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E12" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -19736,109 +19822,109 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -19846,16 +19932,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F2" t="s">
         <v>595</v>
@@ -19953,16 +20039,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F3" t="s">
         <v>615</v>
@@ -20060,16 +20146,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F4" t="s">
         <v>616</v>
@@ -20167,16 +20253,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F5" t="s">
         <v>618</v>
@@ -20274,16 +20360,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F6" t="s">
         <v>619</v>
@@ -20381,16 +20467,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F7" t="s">
         <v>623</v>
@@ -20488,16 +20574,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F8" t="s">
         <v>624</v>
@@ -20595,16 +20681,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F9" t="s">
         <v>625</v>
@@ -20702,16 +20788,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F10" t="s">
         <v>628</v>
@@ -20809,16 +20895,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F11" t="s">
         <v>629</v>
@@ -20916,16 +21002,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F12" t="s">
         <v>630</v>
@@ -21048,16 +21134,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>657</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -21065,16 +21151,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -21091,16 +21177,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -21117,16 +21203,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -21143,16 +21229,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -21169,16 +21255,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -21195,16 +21281,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -21221,16 +21307,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -21247,16 +21333,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -21273,16 +21359,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -21299,16 +21385,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -21325,16 +21411,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -49800,7 +49886,7 @@
         <v>691</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>691</v>
@@ -49889,7 +49975,7 @@
         <v>692</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>692</v>
@@ -50156,7 +50242,7 @@
         <v>695</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>695</v>
@@ -51669,7 +51755,7 @@
         <v>712</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>712</v>
@@ -51758,7 +51844,7 @@
         <v>713</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>713</v>
@@ -51847,7 +51933,7 @@
         <v>714</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>714</v>
@@ -51936,7 +52022,7 @@
         <v>715</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>715</v>
@@ -52114,7 +52200,7 @@
         <v>717</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>717</v>
@@ -52203,7 +52289,7 @@
         <v>718</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>718</v>
@@ -52648,7 +52734,7 @@
         <v>723</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>723</v>
@@ -52737,7 +52823,7 @@
         <v>724</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>724</v>
@@ -54910,7 +54996,7 @@
         <v>781</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>781</v>
